--- a/complementary_datasets/population_density_province.xlsx
+++ b/complementary_datasets/population_density_province.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\datathon\base\complementary_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF7164-332A-4E2D-8DD1-2103FE5B4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FB48B6-C19D-4CDF-B2CB-B5225BB9DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27720" yWindow="3270" windowWidth="20985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="43">
   <si>
     <t>Province</t>
   </si>
@@ -138,9 +137,6 @@
     <t>Soria</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadalajara </t>
-  </si>
-  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -166,6 +162,9 @@
   </si>
   <si>
     <t>Population density (persons/sqkm)</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
   </si>
 </sst>
 </file>
@@ -215,18 +214,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,20 +236,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -540,350 +531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B565F5-761C-4EC5-8385-86D12BBC2074}">
+  <dimension ref="A1:E495"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>14926</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5817</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>8775</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>7773</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>14022</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>6636</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>19813</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>13771</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>17140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>5909</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>12646</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>12214</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>10127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>15636</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>13496</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22">
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>15580</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>12172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>9856</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>8027</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>7306</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>7273</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>8052</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>6920</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>14036</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35">
-        <v>10306</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>6302</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>15369</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>10807</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>8110</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>10561</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>8050</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>17274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>14809</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:B40">
-    <sortCondition ref="B5:B40"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B565F5-761C-4EC5-8385-86D12BBC2074}">
-  <dimension ref="A1:E495"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -892,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -914,10 +574,10 @@
       <c r="C2" s="3">
         <v>2022</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>385727</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>25.842623609808388</v>
       </c>
     </row>
@@ -931,10 +591,10 @@
       <c r="C3" s="3">
         <v>2021</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>386464</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>25.892000535977488</v>
       </c>
     </row>
@@ -948,10 +608,10 @@
       <c r="C4" s="3">
         <v>2020</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>388270</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>26.012997454106927</v>
       </c>
     </row>
@@ -965,10 +625,10 @@
       <c r="C5" s="3">
         <v>2019</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>388167</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>26.006096743936755</v>
       </c>
     </row>
@@ -982,10 +642,10 @@
       <c r="C6" s="3">
         <v>2018</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>388786</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>26.047568002143908</v>
       </c>
     </row>
@@ -999,10 +659,10 @@
       <c r="C7" s="3">
         <v>2017</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>390032</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>26.131046496047166</v>
       </c>
     </row>
@@ -1016,10 +676,10 @@
       <c r="C8" s="3">
         <v>2016</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>392118</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>26.270802626289697</v>
       </c>
     </row>
@@ -1033,10 +693,10 @@
       <c r="C9" s="3">
         <v>2015</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>395480</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>26.496047166019029</v>
       </c>
     </row>
@@ -1050,10 +710,10 @@
       <c r="C10" s="3">
         <v>2014</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>396987</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>26.597011925499128</v>
       </c>
     </row>
@@ -1067,10 +727,10 @@
       <c r="C11" s="3">
         <v>2013</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>400007</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>26.799343427576041</v>
       </c>
     </row>
@@ -1084,10 +744,10 @@
       <c r="C12" s="3">
         <v>2012</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>402837</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>26.988945464290499</v>
       </c>
     </row>
@@ -1101,10 +761,10 @@
       <c r="C13" s="3">
         <v>2011</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>402318</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>26.954173924695162</v>
       </c>
     </row>
@@ -1118,10 +778,10 @@
       <c r="C14" s="3">
         <v>2010</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>401682</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>26.911563714324</v>
       </c>
     </row>
@@ -1135,10 +795,10 @@
       <c r="C15">
         <v>2022</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1901594</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>326.90287089565066</v>
       </c>
     </row>
@@ -1152,10 +812,10 @@
       <c r="C16">
         <v>2021</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1881762</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>323.4935533780299</v>
       </c>
     </row>
@@ -1169,10 +829,10 @@
       <c r="C17">
         <v>2020</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1879888</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>323.17139418944475</v>
       </c>
     </row>
@@ -1186,10 +846,10 @@
       <c r="C18">
         <v>2019</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1858683</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>319.52604435275913</v>
       </c>
     </row>
@@ -1203,10 +863,10 @@
       <c r="C19">
         <v>2018</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1838819</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>316.11122571772393</v>
       </c>
     </row>
@@ -1220,10 +880,10 @@
       <c r="C20">
         <v>2017</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1825332</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>313.79267663744196</v>
       </c>
     </row>
@@ -1237,10 +897,10 @@
       <c r="C21">
         <v>2016</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1836459</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>315.7055183084064</v>
       </c>
     </row>
@@ -1254,10 +914,10 @@
       <c r="C22">
         <v>2015</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1855047</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>318.90097988653946</v>
       </c>
     </row>
@@ -1271,10 +931,10 @@
       <c r="C23">
         <v>2014</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1868438</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>321.20302561457794</v>
       </c>
     </row>
@@ -1288,10 +948,10 @@
       <c r="C24">
         <v>2013</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1945642</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>334.47515901667526</v>
       </c>
     </row>
@@ -1305,10 +965,10 @@
       <c r="C25">
         <v>2012</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1943910</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>334.17741103661683</v>
       </c>
     </row>
@@ -1322,10 +982,10 @@
       <c r="C26">
         <v>2011</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1934127</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>332.49561629706034</v>
       </c>
     </row>
@@ -1339,10 +999,10 @@
       <c r="C27">
         <v>2010</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1926285</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>331.14749871067562</v>
       </c>
     </row>
@@ -1356,10 +1016,10 @@
       <c r="C28">
         <v>2022</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>740534</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>84.391339031339029</v>
       </c>
     </row>
@@ -1373,10 +1033,10 @@
       <c r="C29">
         <v>2021</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>731792</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>83.395099715099718</v>
       </c>
     </row>
@@ -1390,10 +1050,10 @@
       <c r="C30">
         <v>2020</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>727945</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>82.956695156695162</v>
       </c>
     </row>
@@ -1407,10 +1067,10 @@
       <c r="C31">
         <v>2019</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>716820</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>81.688888888888883</v>
       </c>
     </row>
@@ -1424,10 +1084,10 @@
       <c r="C32">
         <v>2018</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>709340</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>80.836467236467243</v>
       </c>
     </row>
@@ -1441,10 +1101,10 @@
       <c r="C33">
         <v>2017</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>706672</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>80.532421652421647</v>
       </c>
     </row>
@@ -1458,10 +1118,10 @@
       <c r="C34">
         <v>2016</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>704297</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>80.261766381766378</v>
       </c>
     </row>
@@ -1475,10 +1135,10 @@
       <c r="C35">
         <v>2015</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>701211</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>79.910085470085477</v>
       </c>
     </row>
@@ -1492,10 +1152,10 @@
       <c r="C36">
         <v>2014</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>701688</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>79.964444444444439</v>
       </c>
     </row>
@@ -1509,10 +1169,10 @@
       <c r="C37">
         <v>2013</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>699329</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>79.69561253561254</v>
       </c>
     </row>
@@ -1526,10 +1186,10 @@
       <c r="C38">
         <v>2012</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>704219</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>80.252877492877488</v>
       </c>
     </row>
@@ -1543,10 +1203,10 @@
       <c r="C39">
         <v>2011</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>702819</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>80.093333333333334</v>
       </c>
     </row>
@@ -1560,10 +1220,10 @@
       <c r="C40">
         <v>2010</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>695566</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>79.26678062678063</v>
       </c>
     </row>
@@ -1577,10 +1237,10 @@
       <c r="C41">
         <v>2022</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>5727615</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>736.86028560401394</v>
       </c>
     </row>
@@ -1594,10 +1254,10 @@
       <c r="C42">
         <v>2021</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>5714730</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>735.2026244693169</v>
       </c>
     </row>
@@ -1611,10 +1271,10 @@
       <c r="C43">
         <v>2020</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>5743402</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <v>738.89129036408076</v>
       </c>
     </row>
@@ -1628,10 +1288,10 @@
       <c r="C44">
         <v>2019</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>5664579</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <v>728.75067541489773</v>
       </c>
     </row>
@@ -1645,10 +1305,10 @@
       <c r="C45">
         <v>2018</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>5609350</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>721.64543934130961</v>
       </c>
     </row>
@@ -1662,10 +1322,10 @@
       <c r="C46">
         <v>2017</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>5576037</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <v>717.35970667695869</v>
       </c>
     </row>
@@ -1679,10 +1339,10 @@
       <c r="C47">
         <v>2016</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>5542680</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="7">
         <v>713.06831339251255</v>
       </c>
     </row>
@@ -1696,10 +1356,10 @@
       <c r="C48">
         <v>2015</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>5523922</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>710.65508812556288</v>
       </c>
     </row>
@@ -1713,10 +1373,10 @@
       <c r="C49">
         <v>2014</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>5523784</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <v>710.63733436253699</v>
       </c>
     </row>
@@ -1730,10 +1390,10 @@
       <c r="C50">
         <v>2013</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>5540925</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
         <v>712.84253184098804</v>
       </c>
     </row>
@@ -1747,10 +1407,10 @@
       <c r="C51">
         <v>2012</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>5552050</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
         <v>714.27376817187701</v>
       </c>
     </row>
@@ -1764,10 +1424,10 @@
       <c r="C52">
         <v>2011</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>5529099</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
         <v>711.32111153994595</v>
       </c>
     </row>
@@ -1781,10 +1441,10 @@
       <c r="C53">
         <v>2010</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>5511147</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <v>709.01157854110386</v>
       </c>
     </row>
@@ -1801,7 +1461,7 @@
       <c r="D54">
         <v>355045</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>25.320567679361005</v>
       </c>
     </row>
@@ -1818,7 +1478,7 @@
       <c r="D55">
         <v>356055</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="7">
         <v>25.390786564929044</v>
       </c>
     </row>
@@ -1835,7 +1495,7 @@
       <c r="D56">
         <v>357650</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
         <v>25.502709640616086</v>
       </c>
     </row>
@@ -1852,7 +1512,7 @@
       <c r="D57">
         <v>356958</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>25.451550802139039</v>
       </c>
     </row>
@@ -1869,7 +1529,7 @@
       <c r="D58">
         <v>357070</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>25.457721374590047</v>
       </c>
     </row>
@@ -1886,7 +1546,7 @@
       <c r="D59">
         <v>358171</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <v>25.534397946816853</v>
       </c>
     </row>
@@ -1903,7 +1563,7 @@
       <c r="D60">
         <v>360995</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <v>25.733889364128885</v>
       </c>
     </row>
@@ -1920,7 +1580,7 @@
       <c r="D61">
         <v>364002</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>25.946396749590136</v>
       </c>
     </row>
@@ -1937,7 +1597,7 @@
       <c r="D62">
         <v>366900</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="7">
         <v>26.151104775481112</v>
       </c>
     </row>
@@ -1954,7 +1614,7 @@
       <c r="D63">
         <v>371248</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <v>26.459126220511724</v>
       </c>
     </row>
@@ -1971,7 +1631,7 @@
       <c r="D64">
         <v>374970</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="7">
         <v>26.722491448118586</v>
       </c>
     </row>
@@ -1988,7 +1648,7 @@
       <c r="D65">
         <v>375657</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="7">
         <v>26.76954321955391</v>
       </c>
     </row>
@@ -2005,13 +1665,13 @@
       <c r="D66">
         <v>374826</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="7">
         <v>26.708422402736211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67">
         <v>7440</v>
@@ -2019,16 +1679,16 @@
       <c r="C67">
         <v>2022</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>1246781</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="7">
         <v>167.57809139784945</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <v>7440</v>
@@ -2036,16 +1696,16 @@
       <c r="C68">
         <v>2021</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>1245960</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="7">
         <v>167.46774193548387</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69">
         <v>7440</v>
@@ -2053,16 +1713,16 @@
       <c r="C69">
         <v>2020</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>1244049</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="7">
         <v>167.2108870967742</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70">
         <v>7440</v>
@@ -2070,16 +1730,16 @@
       <c r="C70">
         <v>2019</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>1240155</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="7">
         <v>166.6875</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71">
         <v>7440</v>
@@ -2087,16 +1747,16 @@
       <c r="C71">
         <v>2018</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>1238714</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="7">
         <v>166.49381720430108</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72">
         <v>7440</v>
@@ -2104,16 +1764,16 @@
       <c r="C72">
         <v>2017</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>1239435</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="7">
         <v>166.59072580645162</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>7440</v>
@@ -2121,16 +1781,16 @@
       <c r="C73">
         <v>2016</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>1239889</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="7">
         <v>166.65174731182796</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74">
         <v>7440</v>
@@ -2138,16 +1798,16 @@
       <c r="C74">
         <v>2015</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>1240284</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="7">
         <v>166.70483870967743</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>7440</v>
@@ -2155,16 +1815,16 @@
       <c r="C75">
         <v>2014</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>1240175</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="7">
         <v>166.69018817204301</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>7440</v>
@@ -2172,16 +1832,16 @@
       <c r="C76">
         <v>2013</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>1238492</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="7">
         <v>166.46397849462366</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77">
         <v>7440</v>
@@ -2189,16 +1849,16 @@
       <c r="C77">
         <v>2012</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>1245164</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="7">
         <v>167.36075268817206</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78">
         <v>7440</v>
@@ -2206,16 +1866,16 @@
       <c r="C78">
         <v>2011</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>1243519</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="7">
         <v>167.1396505376344</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79">
         <v>7440</v>
@@ -2223,10 +1883,10 @@
       <c r="C79">
         <v>2010</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>1236739</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="7">
         <v>166.22836021505375</v>
       </c>
     </row>
@@ -2240,10 +1900,10 @@
       <c r="C80">
         <v>2022</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>590616</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="7">
         <v>89.001808318264011</v>
       </c>
     </row>
@@ -2257,10 +1917,10 @@
       <c r="C81">
         <v>2021</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>587064</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="7">
         <v>88.466546112115736</v>
       </c>
     </row>
@@ -2274,10 +1934,10 @@
       <c r="C82">
         <v>2020</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>585590</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="7">
         <v>88.244424352019294</v>
       </c>
     </row>
@@ -2291,10 +1951,10 @@
       <c r="C83">
         <v>2019</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>579962</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="7">
         <v>87.396323086196503</v>
       </c>
     </row>
@@ -2308,10 +1968,10 @@
       <c r="C84">
         <v>2018</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>576898</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="7">
         <v>86.934599156118139</v>
       </c>
     </row>
@@ -2325,10 +1985,10 @@
       <c r="C85">
         <v>2017</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>575470</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="7">
         <v>86.719409282700425</v>
       </c>
     </row>
@@ -2342,10 +2002,10 @@
       <c r="C86">
         <v>2016</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>579245</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="7">
         <v>87.288276069921636</v>
       </c>
     </row>
@@ -2359,10 +2019,10 @@
       <c r="C87">
         <v>2015</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>582327</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="7">
         <v>87.752712477396017</v>
       </c>
     </row>
@@ -2376,10 +2036,10 @@
       <c r="C88">
         <v>2014</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>587508</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="7">
         <v>88.533453887884264</v>
       </c>
     </row>
@@ -2393,10 +2053,10 @@
       <c r="C89">
         <v>2013</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>601699</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="7">
         <v>90.671940928270047</v>
       </c>
     </row>
@@ -2410,10 +2070,10 @@
       <c r="C90">
         <v>2012</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>604564</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="7">
         <v>91.103676913803497</v>
       </c>
     </row>
@@ -2427,10 +2087,10 @@
       <c r="C91">
         <v>2011</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>604344</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="7">
         <v>91.070524412296564</v>
       </c>
     </row>
@@ -2444,10 +2104,10 @@
       <c r="C92">
         <v>2010</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>604274</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="7">
         <v>91.059975889089813</v>
       </c>
     </row>
@@ -2461,10 +2121,10 @@
       <c r="C93">
         <v>2022</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>490806</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="7">
         <v>24.771917427951344</v>
       </c>
     </row>
@@ -2478,10 +2138,10 @@
       <c r="C94">
         <v>2021</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>492591</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="7">
         <v>24.862009791551003</v>
       </c>
     </row>
@@ -2495,10 +2155,10 @@
       <c r="C95">
         <v>2020</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>495045</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="7">
         <v>24.985867864533386</v>
       </c>
     </row>
@@ -2512,10 +2172,10 @@
       <c r="C96">
         <v>2019</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>495761</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="7">
         <v>25.022005753798013</v>
       </c>
     </row>
@@ -2529,10 +2189,10 @@
       <c r="C97">
         <v>2018</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>499100</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="7">
         <v>25.190531469237371</v>
       </c>
     </row>
@@ -2546,10 +2206,10 @@
       <c r="C98">
         <v>2017</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>502578</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="7">
         <v>25.366072780497653</v>
       </c>
     </row>
@@ -2563,10 +2223,10 @@
       <c r="C99">
         <v>2016</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>506888</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="7">
         <v>25.583606722858729</v>
       </c>
     </row>
@@ -2580,10 +2240,10 @@
       <c r="C100">
         <v>2015</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>513713</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="7">
         <v>25.928077524857418</v>
       </c>
     </row>
@@ -2597,10 +2257,10 @@
       <c r="C101">
         <v>2014</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>519613</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="7">
         <v>26.2258618079039</v>
       </c>
     </row>
@@ -2614,10 +2274,10 @@
       <c r="C102">
         <v>2013</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>524962</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="7">
         <v>26.495836067228588</v>
       </c>
     </row>
@@ -2631,10 +2291,10 @@
       <c r="C103">
         <v>2012</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>530250</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="7">
         <v>26.762731539898045</v>
       </c>
     </row>
@@ -2648,10 +2308,10 @@
       <c r="C104">
         <v>2011</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>530175</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="7">
         <v>26.758946146469491</v>
       </c>
     </row>
@@ -2665,10 +2325,10 @@
       <c r="C105">
         <v>2010</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>529453</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="7">
         <v>26.722505425730581</v>
       </c>
     </row>
@@ -2682,10 +2342,10 @@
       <c r="C106">
         <v>2022</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>772464</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="7">
         <v>56.09352988163532</v>
       </c>
     </row>
@@ -2699,10 +2359,10 @@
       <c r="C107">
         <v>2021</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>776789</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="7">
         <v>56.407595672064481</v>
       </c>
     </row>
@@ -2716,10 +2376,10 @@
       <c r="C108">
         <v>2020</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>781451</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="7">
         <v>56.746133178418418</v>
       </c>
     </row>
@@ -2733,10 +2393,10 @@
       <c r="C109">
         <v>2019</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>782979</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="7">
         <v>56.857090988308762</v>
       </c>
     </row>
@@ -2750,10 +2410,10 @@
       <c r="C110">
         <v>2018</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>785240</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="7">
         <v>57.021276595744681</v>
       </c>
     </row>
@@ -2767,10 +2427,10 @@
       <c r="C111">
         <v>2017</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>788219</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="7">
         <v>57.237600755210224</v>
       </c>
     </row>
@@ -2784,10 +2444,10 @@
       <c r="C112">
         <v>2016</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>791610</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="7">
         <v>57.483842858180232</v>
       </c>
     </row>
@@ -2801,10 +2461,10 @@
       <c r="C113">
         <v>2015</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>795611</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="7">
         <v>57.774380945465111</v>
       </c>
     </row>
@@ -2818,10 +2478,10 @@
       <c r="C114">
         <v>2014</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>799402</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="7">
         <v>58.049669595526829</v>
       </c>
     </row>
@@ -2835,10 +2495,10 @@
       <c r="C115">
         <v>2013</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>802422</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="7">
         <v>58.268971026069273</v>
       </c>
     </row>
@@ -2852,10 +2512,10 @@
       <c r="C116">
         <v>2012</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>804498</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="7">
         <v>58.419722605475272</v>
       </c>
     </row>
@@ -2869,10 +2529,10 @@
       <c r="C117">
         <v>2011</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>805857</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="7">
         <v>58.518408249219377</v>
       </c>
     </row>
@@ -2886,10 +2546,10 @@
       <c r="C118">
         <v>2010</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>805108</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="7">
         <v>58.464018589790136</v>
       </c>
     </row>
@@ -2903,10 +2563,10 @@
       <c r="C119">
         <v>2022</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>195215</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="7">
         <v>11.389439906651109</v>
       </c>
     </row>
@@ -2920,10 +2580,10 @@
       <c r="C120">
         <v>2021</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>195516</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="7">
         <v>11.407001166861143</v>
       </c>
     </row>
@@ -2937,10 +2597,10 @@
       <c r="C121">
         <v>2020</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>196139</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="7">
         <v>11.443348891481914</v>
       </c>
     </row>
@@ -2954,10 +2614,10 @@
       <c r="C122">
         <v>2019</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>196329</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="7">
         <v>11.454434072345391</v>
       </c>
     </row>
@@ -2971,10 +2631,10 @@
       <c r="C123">
         <v>2018</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>197222</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="7">
         <v>11.506534422403734</v>
       </c>
     </row>
@@ -2988,10 +2648,10 @@
       <c r="C124">
         <v>2017</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>198718</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="7">
         <v>11.593815635939324</v>
       </c>
     </row>
@@ -3005,10 +2665,10 @@
       <c r="C125">
         <v>2016</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>201071</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="7">
         <v>11.731096849474913</v>
       </c>
     </row>
@@ -3022,10 +2682,10 @@
       <c r="C126">
         <v>2015</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>203841</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="7">
         <v>11.892707117852975</v>
       </c>
     </row>
@@ -3039,10 +2699,10 @@
       <c r="C127">
         <v>2014</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>207449</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="7">
         <v>12.103208868144691</v>
       </c>
     </row>
@@ -3056,10 +2716,10 @@
       <c r="C128">
         <v>2013</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>211899</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="7">
         <v>12.362835472578762</v>
       </c>
     </row>
@@ -3073,10 +2733,10 @@
       <c r="C129">
         <v>2012</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>218036</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="7">
         <v>12.720886814469079</v>
       </c>
     </row>
@@ -3090,10 +2750,10 @@
       <c r="C130">
         <v>2011</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>219138</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="7">
         <v>12.785180863477246</v>
       </c>
     </row>
@@ -3107,10 +2767,10 @@
       <c r="C131">
         <v>2010</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>217716</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="7">
         <v>12.702217036172696</v>
       </c>
     </row>
@@ -3124,10 +2784,10 @@
       <c r="C132">
         <v>2022</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>793478</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="7">
         <v>134.28295819935693</v>
       </c>
     </row>
@@ -3141,10 +2801,10 @@
       <c r="C133">
         <v>2021</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>786596</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="7">
         <v>133.11829412760196</v>
       </c>
     </row>
@@ -3158,10 +2818,10 @@
       <c r="C134">
         <v>2020</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>781788</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="7">
         <v>132.30462007107801</v>
       </c>
     </row>
@@ -3175,10 +2835,10 @@
       <c r="C135">
         <v>2019</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>771044</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="7">
         <v>130.48637671348791</v>
       </c>
     </row>
@@ -3192,10 +2852,10 @@
       <c r="C136">
         <v>2018</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>761947</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="7">
         <v>128.94686072093415</v>
       </c>
     </row>
@@ -3209,10 +2869,10 @@
       <c r="C137">
         <v>2017</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>755716</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="7">
         <v>127.89236757488577</v>
       </c>
     </row>
@@ -3226,10 +2886,10 @@
       <c r="C138">
         <v>2016</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>753576</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="7">
         <v>127.53020815704858</v>
       </c>
     </row>
@@ -3243,10 +2903,10 @@
       <c r="C139">
         <v>2015</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>753054</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="7">
         <v>127.44186833643595</v>
       </c>
     </row>
@@ -3260,10 +2920,10 @@
       <c r="C140">
         <v>2014</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>756156</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="7">
         <v>127.96683025892706</v>
       </c>
     </row>
@@ -3277,10 +2937,10 @@
       <c r="C141">
         <v>2013</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>761632</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="7">
         <v>128.89355220849552</v>
       </c>
     </row>
@@ -3294,10 +2954,10 @@
       <c r="C142">
         <v>2012</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>761627</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="7">
         <v>128.89270604163141</v>
       </c>
     </row>
@@ -3311,10 +2971,10 @@
       <c r="C143">
         <v>2011</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>756810</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="7">
         <v>128.07750888475206</v>
       </c>
     </row>
@@ -3328,10 +2988,10 @@
       <c r="C144">
         <v>2010</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>753046</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="7">
         <v>127.44051446945338</v>
       </c>
     </row>
@@ -3345,10 +3005,10 @@
       <c r="C145">
         <v>2022</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>921987</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="7">
         <v>72.907401549897202</v>
       </c>
     </row>
@@ -3362,10 +3022,10 @@
       <c r="C146">
         <v>2021</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>921338</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="7">
         <v>72.856080974221101</v>
       </c>
     </row>
@@ -3379,10 +3039,10 @@
       <c r="C147">
         <v>2020</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>919168</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="7">
         <v>72.684485212715487</v>
       </c>
     </row>
@@ -3396,10 +3056,10 @@
       <c r="C148">
         <v>2019</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>914678</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="7">
         <v>72.329432231535662</v>
       </c>
     </row>
@@ -3413,10 +3073,10 @@
       <c r="C149">
         <v>2018</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>912075</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="7">
         <v>72.123596394116717</v>
       </c>
     </row>
@@ -3430,10 +3090,10 @@
       <c r="C150">
         <v>2017</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>912938</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E150" s="7">
         <v>72.191839316780005</v>
       </c>
     </row>
@@ -3447,10 +3107,10 @@
       <c r="C151">
         <v>2016</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>915392</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="7">
         <v>72.38589277241816</v>
       </c>
     </row>
@@ -3464,10 +3124,10 @@
       <c r="C152">
         <v>2015</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>917297</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="7">
         <v>72.536533291159259</v>
       </c>
     </row>
@@ -3481,10 +3141,10 @@
       <c r="C153">
         <v>2014</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>919455</v>
       </c>
-      <c r="E153" s="9">
+      <c r="E153" s="7">
         <v>72.707180136011388</v>
       </c>
     </row>
@@ -3498,10 +3158,10 @@
       <c r="C154">
         <v>2013</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>919319</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E154" s="7">
         <v>72.69642574727186</v>
       </c>
     </row>
@@ -3515,10 +3175,10 @@
       <c r="C155">
         <v>2012</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>922928</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="7">
         <v>72.981812430808162</v>
       </c>
     </row>
@@ -3532,10 +3192,10 @@
       <c r="C156">
         <v>2011</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>924550</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E156" s="7">
         <v>73.110074331804526</v>
       </c>
     </row>
@@ -3549,16 +3209,16 @@
       <c r="C157">
         <v>2010</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>918072</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="7">
         <v>72.597817491696986</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B158">
         <v>12214</v>
@@ -3566,16 +3226,16 @@
       <c r="C158">
         <v>2022</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>268127</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E158" s="7">
         <v>21.95243163582774</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B159">
         <v>12214</v>
@@ -3583,16 +3243,16 @@
       <c r="C159">
         <v>2021</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>265588</v>
       </c>
-      <c r="E159" s="9">
+      <c r="E159" s="7">
         <v>21.744555428197152</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B160">
         <v>12214</v>
@@ -3600,16 +3260,16 @@
       <c r="C160">
         <v>2020</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>261995</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E160" s="7">
         <v>21.450384804322908</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B161">
         <v>12214</v>
@@ -3617,16 +3277,16 @@
       <c r="C161">
         <v>2019</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>257762</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="7">
         <v>21.103815293925003</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B162">
         <v>12214</v>
@@ -3634,16 +3294,16 @@
       <c r="C162">
         <v>2018</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>254308</v>
       </c>
-      <c r="E162" s="9">
+      <c r="E162" s="7">
         <v>20.821025053217618</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B163">
         <v>12214</v>
@@ -3651,16 +3311,16 @@
       <c r="C163">
         <v>2017</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>253310</v>
       </c>
-      <c r="E163" s="9">
+      <c r="E163" s="7">
         <v>20.739315539544783</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B164">
         <v>12214</v>
@@ -3668,16 +3328,16 @@
       <c r="C164">
         <v>2016</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>252882</v>
       </c>
-      <c r="E164" s="9">
+      <c r="E164" s="7">
         <v>20.704273784182085</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B165">
         <v>12214</v>
@@ -3685,16 +3345,16 @@
       <c r="C165">
         <v>2015</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>253686</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E165" s="7">
         <v>20.770099885377437</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B166">
         <v>12214</v>
@@ -3702,16 +3362,16 @@
       <c r="C166">
         <v>2014</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>255426</v>
       </c>
-      <c r="E166" s="9">
+      <c r="E166" s="7">
         <v>20.91255935811364</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B167">
         <v>12214</v>
@@ -3719,16 +3379,16 @@
       <c r="C167">
         <v>2013</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>257723</v>
       </c>
-      <c r="E167" s="9">
+      <c r="E167" s="7">
         <v>21.100622236777468</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B168">
         <v>12214</v>
@@ -3736,16 +3396,16 @@
       <c r="C168">
         <v>2012</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>259537</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="7">
         <v>21.249140330767972</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B169">
         <v>12214</v>
@@ -3753,16 +3413,16 @@
       <c r="C169">
         <v>2011</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>256461</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E169" s="7">
         <v>20.997298182413623</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B170">
         <v>12214</v>
@@ -3770,10 +3430,10 @@
       <c r="C170">
         <v>2010</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>251563</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="7">
         <v>20.596282953987227</v>
       </c>
     </row>
@@ -3787,10 +3447,10 @@
       <c r="C171">
         <v>2022</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>528763</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="7">
         <v>52.213192455811196</v>
       </c>
     </row>
@@ -3804,10 +3464,10 @@
       <c r="C172">
         <v>2021</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>525835</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="7">
         <v>51.924064382344227</v>
       </c>
     </row>
@@ -3821,10 +3481,10 @@
       <c r="C173">
         <v>2020</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>524278</v>
       </c>
-      <c r="E173" s="9">
+      <c r="E173" s="7">
         <v>51.770316974424802</v>
       </c>
     </row>
@@ -3838,10 +3498,10 @@
       <c r="C174">
         <v>2019</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>521870</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" s="7">
         <v>51.532536782857704</v>
       </c>
     </row>
@@ -3855,10 +3515,10 @@
       <c r="C175">
         <v>2018</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>519932</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="7">
         <v>51.341167176853958</v>
       </c>
     </row>
@@ -3872,10 +3532,10 @@
       <c r="C176">
         <v>2017</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>518930</v>
       </c>
-      <c r="E176" s="9">
+      <c r="E176" s="7">
         <v>51.242223758269972</v>
       </c>
     </row>
@@ -3889,10 +3549,10 @@
       <c r="C177">
         <v>2016</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>519596</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="7">
         <v>51.307988545472497</v>
       </c>
     </row>
@@ -3906,10 +3566,10 @@
       <c r="C178">
         <v>2015</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <v>520017</v>
       </c>
-      <c r="E178" s="9">
+      <c r="E178" s="7">
         <v>51.349560580626047</v>
       </c>
     </row>
@@ -3923,10 +3583,10 @@
       <c r="C179">
         <v>2014</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>519229</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="7">
         <v>51.271748790362395</v>
       </c>
     </row>
@@ -3940,10 +3600,10 @@
       <c r="C180">
         <v>2013</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>520668</v>
       </c>
-      <c r="E180" s="9">
+      <c r="E180" s="7">
         <v>51.413844178927619</v>
       </c>
     </row>
@@ -3957,10 +3617,10 @@
       <c r="C181">
         <v>2012</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>522862</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="7">
         <v>51.630492742174383</v>
       </c>
     </row>
@@ -3974,10 +3634,10 @@
       <c r="C182">
         <v>2011</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>521968</v>
       </c>
-      <c r="E182" s="9">
+      <c r="E182" s="7">
         <v>51.542213883677299</v>
       </c>
     </row>
@@ -3991,16 +3651,16 @@
       <c r="C183">
         <v>2010</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <v>518081</v>
       </c>
-      <c r="E183" s="9">
+      <c r="E183" s="7">
         <v>51.158388466475756</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184">
         <v>15636</v>
@@ -4008,16 +3668,16 @@
       <c r="C184">
         <v>2022</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <v>225456</v>
       </c>
-      <c r="E184" s="9">
+      <c r="E184" s="7">
         <v>14.41903300076746</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185">
         <v>15636</v>
@@ -4025,16 +3685,16 @@
       <c r="C185">
         <v>2021</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <v>224264</v>
       </c>
-      <c r="E185" s="9">
+      <c r="E185" s="7">
         <v>14.342798669736505</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186">
         <v>15636</v>
@@ -4042,16 +3702,16 @@
       <c r="C186">
         <v>2020</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <v>222687</v>
       </c>
-      <c r="E186" s="9">
+      <c r="E186" s="7">
         <v>14.241941673062165</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187">
         <v>15636</v>
@@ -4059,16 +3719,16 @@
       <c r="C187">
         <v>2019</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <v>220461</v>
       </c>
-      <c r="E187" s="9">
+      <c r="E187" s="7">
         <v>14.099577897160399</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188">
         <v>15636</v>
@@ -4076,16 +3736,16 @@
       <c r="C188">
         <v>2018</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>219345</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="7">
         <v>14.028204144282425</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189">
         <v>15636</v>
@@ -4093,16 +3753,16 @@
       <c r="C189">
         <v>2017</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>219702</v>
       </c>
-      <c r="E189" s="9">
+      <c r="E189" s="7">
         <v>14.051036070606294</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190">
         <v>15636</v>
@@ -4110,16 +3770,16 @@
       <c r="C190">
         <v>2016</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <v>221079</v>
       </c>
-      <c r="E190" s="9">
+      <c r="E190" s="7">
         <v>14.139102072141213</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191">
         <v>15636</v>
@@ -4127,16 +3787,16 @@
       <c r="C191">
         <v>2015</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>222909</v>
       </c>
-      <c r="E191" s="9">
+      <c r="E191" s="7">
         <v>14.256139677666923</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192">
         <v>15636</v>
@@ -4144,16 +3804,16 @@
       <c r="C192">
         <v>2014</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <v>224909</v>
       </c>
-      <c r="E192" s="9">
+      <c r="E192" s="7">
         <v>14.38404962906114</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193">
         <v>15636</v>
@@ -4161,16 +3821,16 @@
       <c r="C193">
         <v>2013</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <v>226329</v>
       </c>
-      <c r="E193" s="9">
+      <c r="E193" s="7">
         <v>14.474865694551037</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B194">
         <v>15636</v>
@@ -4178,16 +3838,16 @@
       <c r="C194">
         <v>2012</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <v>227609</v>
       </c>
-      <c r="E194" s="9">
+      <c r="E194" s="7">
         <v>14.556728063443336</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B195">
         <v>15636</v>
@@ -4195,16 +3855,16 @@
       <c r="C195">
         <v>2011</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>228361</v>
       </c>
-      <c r="E195" s="9">
+      <c r="E195" s="7">
         <v>14.604822205167562</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B196">
         <v>15636</v>
@@ -4212,10 +3872,10 @@
       <c r="C196">
         <v>2010</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>228566</v>
       </c>
-      <c r="E196" s="9">
+      <c r="E196" s="7">
         <v>14.61793297518547</v>
       </c>
     </row>
@@ -4229,10 +3889,10 @@
       <c r="C197">
         <v>2022</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>623761</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="7">
         <v>46.218212803793719</v>
       </c>
     </row>
@@ -4246,10 +3906,10 @@
       <c r="C198">
         <v>2021</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>627190</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="7">
         <v>46.472288085358628</v>
       </c>
     </row>
@@ -4263,10 +3923,10 @@
       <c r="C199">
         <v>2020</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>631381</v>
       </c>
-      <c r="E199" s="9">
+      <c r="E199" s="7">
         <v>46.782824540604622</v>
       </c>
     </row>
@@ -4280,10 +3940,10 @@
       <c r="C200">
         <v>2019</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>633564</v>
       </c>
-      <c r="E200" s="9">
+      <c r="E200" s="7">
         <v>46.944576170717248</v>
       </c>
     </row>
@@ -4297,10 +3957,10 @@
       <c r="C201">
         <v>2018</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>638099</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="7">
         <v>47.280601659751035</v>
       </c>
     </row>
@@ -4314,10 +3974,10 @@
       <c r="C202">
         <v>2017</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>643484</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="7">
         <v>47.679608772969772</v>
       </c>
     </row>
@@ -4331,10 +3991,10 @@
       <c r="C203">
         <v>2016</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>648250</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="7">
         <v>48.032750444576173</v>
       </c>
     </row>
@@ -4348,10 +4008,10 @@
       <c r="C204">
         <v>2015</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>654170</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="7">
         <v>48.471398933017191</v>
       </c>
     </row>
@@ -4365,10 +4025,10 @@
       <c r="C205">
         <v>2014</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>659033</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="7">
         <v>48.831727919383518</v>
       </c>
     </row>
@@ -4382,10 +4042,10 @@
       <c r="C206">
         <v>2013</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>664916</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="7">
         <v>49.267634854771785</v>
       </c>
     </row>
@@ -4399,10 +4059,10 @@
       <c r="C207">
         <v>2012</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>670242</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="7">
         <v>49.662270302311796</v>
       </c>
     </row>
@@ -4416,10 +4076,10 @@
       <c r="C208">
         <v>2011</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>670600</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="7">
         <v>49.688796680497923</v>
       </c>
     </row>
@@ -4433,10 +4093,10 @@
       <c r="C209">
         <v>2010</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>670761</v>
       </c>
-      <c r="E209" s="9">
+      <c r="E209" s="7">
         <v>49.700726141078839</v>
       </c>
     </row>
@@ -4450,10 +4110,10 @@
       <c r="C210">
         <v>2022</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>1119180</v>
       </c>
-      <c r="E210" s="9">
+      <c r="E210" s="7">
         <v>140.77735849056603</v>
       </c>
     </row>
@@ -4467,10 +4127,10 @@
       <c r="C211">
         <v>2021</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>1120134</v>
       </c>
-      <c r="E211" s="9">
+      <c r="E211" s="7">
         <v>140.89735849056603</v>
       </c>
     </row>
@@ -4484,10 +4144,10 @@
       <c r="C212">
         <v>2020</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>1121815</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="7">
         <v>141.10880503144654</v>
       </c>
     </row>
@@ -4501,10 +4161,10 @@
       <c r="C213">
         <v>2019</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>1119596</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="7">
         <v>140.82968553459119</v>
       </c>
     </row>
@@ -4518,10 +4178,10 @@
       <c r="C214">
         <v>2018</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>1119351</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="7">
         <v>140.79886792452831</v>
       </c>
     </row>
@@ -4535,10 +4195,10 @@
       <c r="C215">
         <v>2017</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>1120294</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="7">
         <v>140.91748427672957</v>
       </c>
     </row>
@@ -4552,10 +4212,10 @@
       <c r="C216">
         <v>2016</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>1122799</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="7">
         <v>141.23257861635221</v>
       </c>
     </row>
@@ -4569,10 +4229,10 @@
       <c r="C217">
         <v>2015</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>1127196</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="7">
         <v>141.78566037735848</v>
       </c>
     </row>
@@ -4586,10 +4246,10 @@
       <c r="C218">
         <v>2014</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>1132735</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="7">
         <v>142.48238993710692</v>
       </c>
     </row>
@@ -4603,10 +4263,10 @@
       <c r="C219">
         <v>2013</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>1138161</v>
       </c>
-      <c r="E219" s="9">
+      <c r="E219" s="7">
         <v>143.16490566037737</v>
       </c>
     </row>
@@ -4620,10 +4280,10 @@
       <c r="C220">
         <v>2012</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>1143911</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="7">
         <v>143.88817610062893</v>
       </c>
     </row>
@@ -4637,10 +4297,10 @@
       <c r="C221">
         <v>2011</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>1147124</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="7">
         <v>144.29232704402517</v>
       </c>
     </row>
@@ -4654,10 +4314,10 @@
       <c r="C222">
         <v>2010</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>1146458</v>
       </c>
-      <c r="E222" s="9">
+      <c r="E222" s="7">
         <v>144.20855345911949</v>
       </c>
     </row>
@@ -4671,10 +4331,10 @@
       <c r="C223">
         <v>2022</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>319892</v>
       </c>
-      <c r="E223" s="9">
+      <c r="E223" s="7">
         <v>63.40773042616452</v>
       </c>
     </row>
@@ -4688,10 +4348,10 @@
       <c r="C224">
         <v>2021</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>319796</v>
       </c>
-      <c r="E224" s="9">
+      <c r="E224" s="7">
         <v>63.388701684836469</v>
       </c>
     </row>
@@ -4705,10 +4365,10 @@
       <c r="C225">
         <v>2020</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>319914</v>
       </c>
-      <c r="E225" s="9">
+      <c r="E225" s="7">
         <v>63.412091179385527</v>
       </c>
     </row>
@@ -4722,10 +4382,10 @@
       <c r="C226">
         <v>2019</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>316798</v>
       </c>
-      <c r="E226" s="9">
+      <c r="E226" s="7">
         <v>62.794449950445987</v>
       </c>
     </row>
@@ -4739,10 +4399,10 @@
       <c r="C227">
         <v>2018</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>315675</v>
       </c>
-      <c r="E227" s="9">
+      <c r="E227" s="7">
         <v>62.571853320118933</v>
       </c>
     </row>
@@ -4756,10 +4416,10 @@
       <c r="C228">
         <v>2017</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>315381</v>
       </c>
-      <c r="E228" s="9">
+      <c r="E228" s="7">
         <v>62.513577799801787</v>
       </c>
     </row>
@@ -4773,10 +4433,10 @@
       <c r="C229">
         <v>2016</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>315794</v>
       </c>
-      <c r="E229" s="9">
+      <c r="E229" s="7">
         <v>62.595441030723485</v>
       </c>
     </row>
@@ -4790,10 +4450,10 @@
       <c r="C230">
         <v>2015</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>317053</v>
       </c>
-      <c r="E230" s="9">
+      <c r="E230" s="7">
         <v>62.844995044598612</v>
       </c>
     </row>
@@ -4807,10 +4467,10 @@
       <c r="C231">
         <v>2014</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>319002</v>
       </c>
-      <c r="E231" s="9">
+      <c r="E231" s="7">
         <v>63.231318136769076</v>
       </c>
     </row>
@@ -4824,10 +4484,10 @@
       <c r="C232">
         <v>2013</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>322027</v>
       </c>
-      <c r="E232" s="9">
+      <c r="E232" s="7">
         <v>63.830921704658074</v>
       </c>
     </row>
@@ -4841,10 +4501,10 @@
       <c r="C233">
         <v>2012</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>323609</v>
       </c>
-      <c r="E233" s="9">
+      <c r="E233" s="7">
         <v>64.144499504459858</v>
       </c>
     </row>
@@ -4858,10 +4518,10 @@
       <c r="C234">
         <v>2011</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>322955</v>
       </c>
-      <c r="E234" s="9">
+      <c r="E234" s="7">
         <v>64.014866204162544</v>
       </c>
     </row>
@@ -4875,10 +4535,10 @@
       <c r="C235">
         <v>2010</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>322415</v>
       </c>
-      <c r="E235" s="9">
+      <c r="E235" s="7">
         <v>63.907829534192267</v>
       </c>
     </row>
@@ -4892,10 +4552,10 @@
       <c r="C236">
         <v>2022</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>448179</v>
       </c>
-      <c r="E236" s="9">
+      <c r="E236" s="7">
         <v>28.76630295250321</v>
       </c>
     </row>
@@ -4909,10 +4569,10 @@
       <c r="C237">
         <v>2021</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>451706</v>
       </c>
-      <c r="E237" s="9">
+      <c r="E237" s="7">
         <v>28.992682926829268</v>
       </c>
     </row>
@@ -4926,10 +4586,10 @@
       <c r="C238">
         <v>2020</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>456439</v>
       </c>
-      <c r="E238" s="9">
+      <c r="E238" s="7">
         <v>29.296469833119385</v>
       </c>
     </row>
@@ -4943,10 +4603,10 @@
       <c r="C239">
         <v>2019</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>460001</v>
       </c>
-      <c r="E239" s="9">
+      <c r="E239" s="7">
         <v>29.525096277278561</v>
       </c>
     </row>
@@ -4960,10 +4620,10 @@
       <c r="C240">
         <v>2018</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>463746</v>
       </c>
-      <c r="E240" s="9">
+      <c r="E240" s="7">
         <v>29.765468549422337</v>
       </c>
     </row>
@@ -4977,10 +4637,10 @@
       <c r="C241">
         <v>2017</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>468316</v>
       </c>
-      <c r="E241" s="9">
+      <c r="E241" s="7">
         <v>30.058793324775355</v>
       </c>
     </row>
@@ -4994,10 +4654,10 @@
       <c r="C242">
         <v>2016</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>473604</v>
       </c>
-      <c r="E242" s="9">
+      <c r="E242" s="7">
         <v>30.398202824133506</v>
       </c>
     </row>
@@ -5011,10 +4671,10 @@
       <c r="C243">
         <v>2015</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>479395</v>
       </c>
-      <c r="E243" s="9">
+      <c r="E243" s="7">
         <v>30.769897304236199</v>
       </c>
     </row>
@@ -5028,10 +4688,10 @@
       <c r="C244">
         <v>2014</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>484694</v>
       </c>
-      <c r="E244" s="9">
+      <c r="E244" s="7">
         <v>31.110012836970476</v>
       </c>
     </row>
@@ -5045,10 +4705,10 @@
       <c r="C245">
         <v>2013</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>489752</v>
       </c>
-      <c r="E245" s="9">
+      <c r="E245" s="7">
         <v>31.434659820282413</v>
       </c>
     </row>
@@ -5062,10 +4722,10 @@
       <c r="C246">
         <v>2012</v>
       </c>
-      <c r="D246" s="5">
+      <c r="D246" s="4">
         <v>494451</v>
       </c>
-      <c r="E246" s="9">
+      <c r="E246" s="7">
         <v>31.736264441591786</v>
       </c>
     </row>
@@ -5079,10 +4739,10 @@
       <c r="C247">
         <v>2011</v>
       </c>
-      <c r="D247" s="5">
+      <c r="D247" s="4">
         <v>497799</v>
       </c>
-      <c r="E247" s="9">
+      <c r="E247" s="7">
         <v>31.951155327342747</v>
       </c>
     </row>
@@ -5096,10 +4756,10 @@
       <c r="C248">
         <v>2010</v>
       </c>
-      <c r="D248" s="5">
+      <c r="D248" s="4">
         <v>499284</v>
       </c>
-      <c r="E248" s="9">
+      <c r="E248" s="7">
         <v>32.046469833119382</v>
       </c>
     </row>
@@ -5113,10 +4773,10 @@
       <c r="C249">
         <v>2022</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="4">
         <v>441443</v>
       </c>
-      <c r="E249" s="9">
+      <c r="E249" s="7">
         <v>36.267088399605655</v>
       </c>
     </row>
@@ -5130,10 +4790,10 @@
       <c r="C250">
         <v>2021</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="4">
         <v>439727</v>
       </c>
-      <c r="E250" s="9">
+      <c r="E250" s="7">
         <v>36.126109102859019</v>
       </c>
     </row>
@@ -5147,10 +4807,10 @@
       <c r="C251">
         <v>2020</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="4">
         <v>438517</v>
       </c>
-      <c r="E251" s="9">
+      <c r="E251" s="7">
         <v>36.026700624383835</v>
       </c>
     </row>
@@ -5164,10 +4824,10 @@
       <c r="C252">
         <v>2019</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D252" s="4">
         <v>434930</v>
       </c>
-      <c r="E252" s="9">
+      <c r="E252" s="7">
         <v>35.732007886953667</v>
       </c>
     </row>
@@ -5181,10 +4841,10 @@
       <c r="C253">
         <v>2018</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D253" s="4">
         <v>432866</v>
       </c>
-      <c r="E253" s="9">
+      <c r="E253" s="7">
         <v>35.562438383174502</v>
       </c>
     </row>
@@ -5198,10 +4858,10 @@
       <c r="C254">
         <v>2017</v>
       </c>
-      <c r="D254" s="5">
+      <c r="D254" s="4">
         <v>432384</v>
       </c>
-      <c r="E254" s="9">
+      <c r="E254" s="7">
         <v>35.522839303319095</v>
       </c>
     </row>
@@ -5215,10 +4875,10 @@
       <c r="C255">
         <v>2016</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D255" s="4">
         <v>434041</v>
       </c>
-      <c r="E255" s="9">
+      <c r="E255" s="7">
         <v>35.658971409792969</v>
       </c>
     </row>
@@ -5232,10 +4892,10 @@
       <c r="C256">
         <v>2015</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D256" s="4">
         <v>436029</v>
       </c>
-      <c r="E256" s="9">
+      <c r="E256" s="7">
         <v>35.822297075254681</v>
       </c>
     </row>
@@ -5249,10 +4909,10 @@
       <c r="C257">
         <v>2014</v>
       </c>
-      <c r="D257" s="5">
+      <c r="D257" s="4">
         <v>438001</v>
       </c>
-      <c r="E257" s="9">
+      <c r="E257" s="7">
         <v>35.984308248439042</v>
       </c>
     </row>
@@ -5266,10 +4926,10 @@
       <c r="C258">
         <v>2013</v>
       </c>
-      <c r="D258" s="5">
+      <c r="D258" s="4">
         <v>440915</v>
       </c>
-      <c r="E258" s="9">
+      <c r="E258" s="7">
         <v>36.223710154452846</v>
       </c>
     </row>
@@ -5283,10 +4943,10 @@
       <c r="C259">
         <v>2012</v>
       </c>
-      <c r="D259" s="5">
+      <c r="D259" s="4">
         <v>443032</v>
       </c>
-      <c r="E259" s="9">
+      <c r="E259" s="7">
         <v>36.397633913900755</v>
       </c>
     </row>
@@ -5300,10 +4960,10 @@
       <c r="C260">
         <v>2011</v>
       </c>
-      <c r="D260" s="5">
+      <c r="D260" s="4">
         <v>442308</v>
       </c>
-      <c r="E260" s="9">
+      <c r="E260" s="7">
         <v>36.338153138350314</v>
       </c>
     </row>
@@ -5317,10 +4977,10 @@
       <c r="C261">
         <v>2010</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D261" s="4">
         <v>439768</v>
       </c>
-      <c r="E261" s="9">
+      <c r="E261" s="7">
         <v>36.129477489319747</v>
       </c>
     </row>
@@ -5334,10 +4994,10 @@
       <c r="C262">
         <v>2022</v>
       </c>
-      <c r="D262" s="5">
+      <c r="D262" s="4">
         <v>323989</v>
       </c>
-      <c r="E262" s="9">
+      <c r="E262" s="7">
         <v>32.872260551948052</v>
       </c>
     </row>
@@ -5351,10 +5011,10 @@
       <c r="C263">
         <v>2021</v>
       </c>
-      <c r="D263" s="5">
+      <c r="D263" s="4">
         <v>326013</v>
       </c>
-      <c r="E263" s="9">
+      <c r="E263" s="7">
         <v>33.077617694805198</v>
       </c>
     </row>
@@ -5368,10 +5028,10 @@
       <c r="C264">
         <v>2020</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="4">
         <v>327946</v>
       </c>
-      <c r="E264" s="9">
+      <c r="E264" s="7">
         <v>33.273741883116884</v>
       </c>
     </row>
@@ -5385,10 +5045,10 @@
       <c r="C265">
         <v>2019</v>
       </c>
-      <c r="D265" s="5">
+      <c r="D265" s="4">
         <v>329587</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E265" s="7">
         <v>33.440239448051948</v>
       </c>
     </row>
@@ -5402,10 +5062,10 @@
       <c r="C266">
         <v>2018</v>
       </c>
-      <c r="D266" s="5">
+      <c r="D266" s="4">
         <v>331327</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E266" s="7">
         <v>33.616781655844157</v>
       </c>
     </row>
@@ -5419,10 +5079,10 @@
       <c r="C267">
         <v>2017</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D267" s="4">
         <v>333634</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E267" s="7">
         <v>33.850852272727273</v>
       </c>
     </row>
@@ -5436,10 +5096,10 @@
       <c r="C268">
         <v>2016</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="4">
         <v>336527</v>
       </c>
-      <c r="E268" s="9">
+      <c r="E268" s="7">
         <v>34.144379058441558</v>
       </c>
     </row>
@@ -5453,10 +5113,10 @@
       <c r="C269">
         <v>2015</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="4">
         <v>339386</v>
       </c>
-      <c r="E269" s="9">
+      <c r="E269" s="7">
         <v>34.434456168831169</v>
       </c>
     </row>
@@ -5470,10 +5130,10 @@
       <c r="C270">
         <v>2014</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="4">
         <v>342748</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E270" s="7">
         <v>34.77556818181818</v>
       </c>
     </row>
@@ -5487,10 +5147,10 @@
       <c r="C271">
         <v>2013</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="4">
         <v>346005</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E271" s="7">
         <v>35.106026785714285</v>
       </c>
     </row>
@@ -5504,10 +5164,10 @@
       <c r="C272">
         <v>2012</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="4">
         <v>348902</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E272" s="7">
         <v>35.399959415584412</v>
       </c>
     </row>
@@ -5521,10 +5181,10 @@
       <c r="C273">
         <v>2011</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="4">
         <v>351530</v>
       </c>
-      <c r="E273" s="9">
+      <c r="E273" s="7">
         <v>35.666599025974023</v>
       </c>
     </row>
@@ -5538,10 +5198,10 @@
       <c r="C274">
         <v>2010</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="4">
         <v>353504</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E274" s="7">
         <v>35.866883116883116</v>
       </c>
     </row>
@@ -5555,10 +5215,10 @@
       <c r="C275">
         <v>2022</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>6750336</v>
       </c>
-      <c r="E275" s="9">
+      <c r="E275" s="7">
         <v>840.9537809891616</v>
       </c>
     </row>
@@ -5572,10 +5232,10 @@
       <c r="C276">
         <v>2021</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="4">
         <v>6751251</v>
       </c>
-      <c r="E276" s="9">
+      <c r="E276" s="7">
         <v>841.0677712719571</v>
       </c>
     </row>
@@ -5589,10 +5249,10 @@
       <c r="C277">
         <v>2020</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="4">
         <v>6779888</v>
       </c>
-      <c r="E277" s="9">
+      <c r="E277" s="7">
         <v>844.63535567459826</v>
       </c>
     </row>
@@ -5606,10 +5266,10 @@
       <c r="C278">
         <v>2019</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="4">
         <v>6663394</v>
       </c>
-      <c r="E278" s="9">
+      <c r="E278" s="7">
         <v>830.12258627133428</v>
       </c>
     </row>
@@ -5623,10 +5283,10 @@
       <c r="C279">
         <v>2018</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="4">
         <v>6578079</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E279" s="7">
         <v>819.4940824716582</v>
       </c>
     </row>
@@ -5640,10 +5300,10 @@
       <c r="C280">
         <v>2017</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="4">
         <v>6507184</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E280" s="7">
         <v>810.66201569702253</v>
       </c>
     </row>
@@ -5657,10 +5317,10 @@
       <c r="C281">
         <v>2016</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="4">
         <v>6466996</v>
       </c>
-      <c r="E281" s="9">
+      <c r="E281" s="7">
         <v>805.65541298118853</v>
       </c>
     </row>
@@ -5674,10 +5334,10 @@
       <c r="C282">
         <v>2015</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="4">
         <v>6436996</v>
       </c>
-      <c r="E282" s="9">
+      <c r="E282" s="7">
         <v>801.91802666002241</v>
       </c>
     </row>
@@ -5691,10 +5351,10 @@
       <c r="C283">
         <v>2014</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="4">
         <v>6454440</v>
       </c>
-      <c r="E283" s="9">
+      <c r="E283" s="7">
         <v>804.09119222623644</v>
       </c>
     </row>
@@ -5708,10 +5368,10 @@
       <c r="C284">
         <v>2013</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="4">
         <v>6495551</v>
       </c>
-      <c r="E284" s="9">
+      <c r="E284" s="7">
         <v>809.21278186121833</v>
       </c>
     </row>
@@ -5725,10 +5385,10 @@
       <c r="C285">
         <v>2012</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="4">
         <v>6498560</v>
       </c>
-      <c r="E285" s="9">
+      <c r="E285" s="7">
         <v>809.58764170923132</v>
       </c>
     </row>
@@ -5742,10 +5402,10 @@
       <c r="C286">
         <v>2011</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>6489680</v>
       </c>
-      <c r="E286" s="9">
+      <c r="E286" s="7">
         <v>808.48137535816613</v>
       </c>
     </row>
@@ -5759,10 +5419,10 @@
       <c r="C287">
         <v>2010</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="4">
         <v>6458684</v>
       </c>
-      <c r="E287" s="9">
+      <c r="E287" s="7">
         <v>804.61990781113741</v>
       </c>
     </row>
@@ -5776,10 +5436,10 @@
       <c r="C288">
         <v>2022</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="4">
         <v>1717504</v>
       </c>
-      <c r="E288" s="9">
+      <c r="E288" s="7">
         <v>235.08130303859841</v>
       </c>
     </row>
@@ -5793,10 +5453,10 @@
       <c r="C289">
         <v>2021</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D289" s="4">
         <v>1695651</v>
       </c>
-      <c r="E289" s="9">
+      <c r="E289" s="7">
         <v>232.09019983575143</v>
       </c>
     </row>
@@ -5810,10 +5470,10 @@
       <c r="C290">
         <v>2020</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="4">
         <v>1685920</v>
       </c>
-      <c r="E290" s="9">
+      <c r="E290" s="7">
         <v>230.75828086504242</v>
       </c>
     </row>
@@ -5827,10 +5487,10 @@
       <c r="C291">
         <v>2019</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="4">
         <v>1661785</v>
       </c>
-      <c r="E291" s="9">
+      <c r="E291" s="7">
         <v>227.45483164522309</v>
       </c>
     </row>
@@ -5844,10 +5504,10 @@
       <c r="C292">
         <v>2018</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D292" s="4">
         <v>1641121</v>
       </c>
-      <c r="E292" s="9">
+      <c r="E292" s="7">
         <v>224.62647139337531</v>
       </c>
     </row>
@@ -5861,10 +5521,10 @@
       <c r="C293">
         <v>2017</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D293" s="4">
         <v>1630615</v>
       </c>
-      <c r="E293" s="9">
+      <c r="E293" s="7">
         <v>223.18847522584178</v>
       </c>
     </row>
@@ -5878,10 +5538,10 @@
       <c r="C294">
         <v>2016</v>
       </c>
-      <c r="D294" s="5">
+      <c r="D294" s="4">
         <v>1629298</v>
       </c>
-      <c r="E294" s="9">
+      <c r="E294" s="7">
         <v>223.00821242814126</v>
       </c>
     </row>
@@ -5895,10 +5555,10 @@
       <c r="C295">
         <v>2015</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="4">
         <v>1628973</v>
       </c>
-      <c r="E295" s="9">
+      <c r="E295" s="7">
         <v>222.96372844237612</v>
       </c>
     </row>
@@ -5912,10 +5572,10 @@
       <c r="C296">
         <v>2014</v>
       </c>
-      <c r="D296" s="5">
+      <c r="D296" s="4">
         <v>1621968</v>
       </c>
-      <c r="E296" s="9">
+      <c r="E296" s="7">
         <v>222.00492745688476</v>
       </c>
     </row>
@@ -5929,10 +5589,10 @@
       <c r="C297">
         <v>2013</v>
       </c>
-      <c r="D297" s="5">
+      <c r="D297" s="4">
         <v>1652999</v>
       </c>
-      <c r="E297" s="9">
+      <c r="E297" s="7">
         <v>226.25225841773886</v>
       </c>
     </row>
@@ -5946,10 +5606,10 @@
       <c r="C298">
         <v>2012</v>
       </c>
-      <c r="D298" s="5">
+      <c r="D298" s="4">
         <v>1641098</v>
       </c>
-      <c r="E298" s="9">
+      <c r="E298" s="7">
         <v>224.62332329592115</v>
       </c>
     </row>
@@ -5963,10 +5623,10 @@
       <c r="C299">
         <v>2011</v>
       </c>
-      <c r="D299" s="5">
+      <c r="D299" s="4">
         <v>1625827</v>
       </c>
-      <c r="E299" s="9">
+      <c r="E299" s="7">
         <v>222.53312346016972</v>
       </c>
     </row>
@@ -5980,10 +5640,10 @@
       <c r="C300">
         <v>2010</v>
       </c>
-      <c r="D300" s="5">
+      <c r="D300" s="4">
         <v>1609557</v>
       </c>
-      <c r="E300" s="9">
+      <c r="E300" s="7">
         <v>220.30618669586642</v>
       </c>
     </row>
@@ -5997,10 +5657,10 @@
       <c r="C301">
         <v>2022</v>
       </c>
-      <c r="D301" s="5">
+      <c r="D301" s="4">
         <v>304280</v>
       </c>
-      <c r="E301" s="9">
+      <c r="E301" s="7">
         <v>41.836931115083182</v>
       </c>
     </row>
@@ -6014,10 +5674,10 @@
       <c r="C302">
         <v>2021</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D302" s="4">
         <v>305223</v>
       </c>
-      <c r="E302" s="9">
+      <c r="E302" s="7">
         <v>41.966588752921766</v>
       </c>
     </row>
@@ -6031,10 +5691,10 @@
       <c r="C303">
         <v>2020</v>
       </c>
-      <c r="D303" s="5">
+      <c r="D303" s="4">
         <v>306650</v>
       </c>
-      <c r="E303" s="9">
+      <c r="E303" s="7">
         <v>42.16279389522893</v>
       </c>
     </row>
@@ -6048,10 +5708,10 @@
       <c r="C304">
         <v>2019</v>
       </c>
-      <c r="D304" s="5">
+      <c r="D304" s="4">
         <v>307651</v>
       </c>
-      <c r="E304" s="9">
+      <c r="E304" s="7">
         <v>42.300426234016221</v>
       </c>
     </row>
@@ -6065,10 +5725,10 @@
       <c r="C305">
         <v>2018</v>
       </c>
-      <c r="D305" s="5">
+      <c r="D305" s="4">
         <v>309293</v>
       </c>
-      <c r="E305" s="9">
+      <c r="E305" s="7">
         <v>42.526192767771207</v>
       </c>
     </row>
@@ -6082,10 +5742,10 @@
       <c r="C306">
         <v>2017</v>
       </c>
-      <c r="D306" s="5">
+      <c r="D306" s="4">
         <v>311680</v>
       </c>
-      <c r="E306" s="9">
+      <c r="E306" s="7">
         <v>42.854392960263993</v>
       </c>
     </row>
@@ -6099,10 +5759,10 @@
       <c r="C307">
         <v>2016</v>
       </c>
-      <c r="D307" s="5">
+      <c r="D307" s="4">
         <v>314853</v>
       </c>
-      <c r="E307" s="9">
+      <c r="E307" s="7">
         <v>43.290664100096244</v>
       </c>
     </row>
@@ -6116,10 +5776,10 @@
       <c r="C308">
         <v>2015</v>
       </c>
-      <c r="D308" s="5">
+      <c r="D308" s="4">
         <v>318391</v>
       </c>
-      <c r="E308" s="9">
+      <c r="E308" s="7">
         <v>43.777120857967823</v>
       </c>
     </row>
@@ -6133,10 +5793,10 @@
       <c r="C309">
         <v>2014</v>
       </c>
-      <c r="D309" s="5">
+      <c r="D309" s="4">
         <v>322293</v>
       </c>
-      <c r="E309" s="9">
+      <c r="E309" s="7">
         <v>44.313625739034784</v>
       </c>
     </row>
@@ -6150,10 +5810,10 @@
       <c r="C310">
         <v>2013</v>
       </c>
-      <c r="D310" s="5">
+      <c r="D310" s="4">
         <v>326724</v>
       </c>
-      <c r="E310" s="9">
+      <c r="E310" s="7">
         <v>44.922865392547777</v>
       </c>
     </row>
@@ -6167,10 +5827,10 @@
       <c r="C311">
         <v>2012</v>
       </c>
-      <c r="D311" s="5">
+      <c r="D311" s="4">
         <v>330257</v>
       </c>
-      <c r="E311" s="9">
+      <c r="E311" s="7">
         <v>45.40863467619964</v>
       </c>
     </row>
@@ -6184,10 +5844,10 @@
       <c r="C312">
         <v>2011</v>
       </c>
-      <c r="D312" s="5">
+      <c r="D312" s="4">
         <v>333257</v>
       </c>
-      <c r="E312" s="9">
+      <c r="E312" s="7">
         <v>45.8211192080297</v>
       </c>
     </row>
@@ -6201,10 +5861,10 @@
       <c r="C313">
         <v>2010</v>
       </c>
-      <c r="D313" s="5">
+      <c r="D313" s="4">
         <v>335219</v>
       </c>
-      <c r="E313" s="9">
+      <c r="E313" s="7">
         <v>46.090884091846554</v>
       </c>
     </row>
@@ -6218,10 +5878,10 @@
       <c r="C314">
         <v>2022</v>
       </c>
-      <c r="D314" s="5">
+      <c r="D314" s="4">
         <v>158008</v>
       </c>
-      <c r="E314" s="9">
+      <c r="E314" s="7">
         <v>19.623447590660707</v>
       </c>
     </row>
@@ -6235,10 +5895,10 @@
       <c r="C315">
         <v>2021</v>
       </c>
-      <c r="D315" s="5">
+      <c r="D315" s="4">
         <v>159123</v>
       </c>
-      <c r="E315" s="9">
+      <c r="E315" s="7">
         <v>19.761922503725781</v>
       </c>
     </row>
@@ -6252,10 +5912,10 @@
       <c r="C316">
         <v>2020</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="4">
         <v>160321</v>
       </c>
-      <c r="E316" s="9">
+      <c r="E316" s="7">
         <v>19.910705414803775</v>
       </c>
     </row>
@@ -6269,10 +5929,10 @@
       <c r="C317">
         <v>2019</v>
       </c>
-      <c r="D317" s="5">
+      <c r="D317" s="4">
         <v>160980</v>
       </c>
-      <c r="E317" s="9">
+      <c r="E317" s="7">
         <v>19.992548435171386</v>
       </c>
     </row>
@@ -6286,10 +5946,10 @@
       <c r="C318">
         <v>2018</v>
       </c>
-      <c r="D318" s="5">
+      <c r="D318" s="4">
         <v>162035</v>
       </c>
-      <c r="E318" s="9">
+      <c r="E318" s="7">
         <v>20.123571783407851</v>
       </c>
     </row>
@@ -6303,10 +5963,10 @@
       <c r="C319">
         <v>2017</v>
       </c>
-      <c r="D319" s="5">
+      <c r="D319" s="4">
         <v>163390</v>
       </c>
-      <c r="E319" s="9">
+      <c r="E319" s="7">
         <v>20.29185295578738</v>
       </c>
     </row>
@@ -6320,10 +5980,10 @@
       <c r="C320">
         <v>2016</v>
       </c>
-      <c r="D320" s="5">
+      <c r="D320" s="4">
         <v>164644</v>
       </c>
-      <c r="E320" s="9">
+      <c r="E320" s="7">
         <v>20.447590660705416</v>
       </c>
     </row>
@@ -6337,10 +5997,10 @@
       <c r="C321">
         <v>2015</v>
       </c>
-      <c r="D321" s="5">
+      <c r="D321" s="4">
         <v>166035</v>
       </c>
-      <c r="E321" s="9">
+      <c r="E321" s="7">
         <v>20.620342771982116</v>
       </c>
     </row>
@@ -6354,10 +6014,10 @@
       <c r="C322">
         <v>2014</v>
       </c>
-      <c r="D322" s="5">
+      <c r="D322" s="4">
         <v>167609</v>
       </c>
-      <c r="E322" s="9">
+      <c r="E322" s="7">
         <v>20.815822155986091</v>
       </c>
     </row>
@@ -6371,10 +6031,10 @@
       <c r="C323">
         <v>2013</v>
       </c>
-      <c r="D323" s="5">
+      <c r="D323" s="4">
         <v>168955</v>
       </c>
-      <c r="E323" s="9">
+      <c r="E323" s="7">
         <v>20.982985593641331</v>
       </c>
     </row>
@@ -6388,10 +6048,10 @@
       <c r="C324">
         <v>2012</v>
       </c>
-      <c r="D324" s="5">
+      <c r="D324" s="4">
         <v>170713</v>
       </c>
-      <c r="E324" s="9">
+      <c r="E324" s="7">
         <v>21.201316443119723</v>
       </c>
     </row>
@@ -6405,10 +6065,10 @@
       <c r="C325">
         <v>2011</v>
       </c>
-      <c r="D325" s="5">
+      <c r="D325" s="4">
         <v>171668</v>
       </c>
-      <c r="E325" s="9">
+      <c r="E325" s="7">
         <v>21.31992051664183</v>
       </c>
     </row>
@@ -6422,10 +6082,10 @@
       <c r="C326">
         <v>2010</v>
       </c>
-      <c r="D326" s="5">
+      <c r="D326" s="4">
         <v>172510</v>
       </c>
-      <c r="E326" s="9">
+      <c r="E326" s="7">
         <v>21.42449080973671</v>
       </c>
     </row>
@@ -6439,10 +6099,10 @@
       <c r="C327">
         <v>2022</v>
       </c>
-      <c r="D327" s="5">
+      <c r="D327" s="4">
         <v>943015</v>
       </c>
-      <c r="E327" s="9">
+      <c r="E327" s="7">
         <v>209.83867378727192</v>
       </c>
     </row>
@@ -6456,10 +6116,10 @@
       <c r="C328">
         <v>2021</v>
       </c>
-      <c r="D328" s="5">
+      <c r="D328" s="4">
         <v>944275</v>
       </c>
-      <c r="E328" s="9">
+      <c r="E328" s="7">
         <v>210.11904761904762</v>
       </c>
     </row>
@@ -6473,10 +6133,10 @@
       <c r="C329">
         <v>2020</v>
       </c>
-      <c r="D329" s="5">
+      <c r="D329" s="4">
         <v>945408</v>
       </c>
-      <c r="E329" s="9">
+      <c r="E329" s="7">
         <v>210.37116154873164</v>
       </c>
     </row>
@@ -6490,10 +6150,10 @@
       <c r="C330">
         <v>2019</v>
       </c>
-      <c r="D330" s="5">
+      <c r="D330" s="4">
         <v>942665</v>
       </c>
-      <c r="E330" s="9">
+      <c r="E330" s="7">
         <v>209.76079216733422</v>
       </c>
     </row>
@@ -6507,10 +6167,10 @@
       <c r="C331">
         <v>2018</v>
       </c>
-      <c r="D331" s="5">
+      <c r="D331" s="4">
         <v>941772</v>
       </c>
-      <c r="E331" s="9">
+      <c r="E331" s="7">
         <v>209.56208277703604</v>
       </c>
     </row>
@@ -6524,10 +6184,10 @@
       <c r="C332">
         <v>2017</v>
       </c>
-      <c r="D332" s="5">
+      <c r="D332" s="4">
         <v>942731</v>
       </c>
-      <c r="E332" s="9">
+      <c r="E332" s="7">
         <v>209.77547841566533</v>
       </c>
     </row>
@@ -6541,10 +6201,10 @@
       <c r="C333">
         <v>2016</v>
       </c>
-      <c r="D333" s="5">
+      <c r="D333" s="4">
         <v>944346</v>
       </c>
-      <c r="E333" s="9">
+      <c r="E333" s="7">
         <v>210.13484646194925</v>
       </c>
     </row>
@@ -6558,10 +6218,10 @@
       <c r="C334">
         <v>2015</v>
       </c>
-      <c r="D334" s="5">
+      <c r="D334" s="4">
         <v>947374</v>
       </c>
-      <c r="E334" s="9">
+      <c r="E334" s="7">
         <v>210.80863373386737</v>
       </c>
     </row>
@@ -6575,10 +6235,10 @@
       <c r="C335">
         <v>2014</v>
       </c>
-      <c r="D335" s="5">
+      <c r="D335" s="4">
         <v>950919</v>
       </c>
-      <c r="E335" s="9">
+      <c r="E335" s="7">
         <v>211.59746328437916</v>
       </c>
     </row>
@@ -6592,10 +6252,10 @@
       <c r="C336">
         <v>2013</v>
       </c>
-      <c r="D336" s="5">
+      <c r="D336" s="4">
         <v>955050</v>
       </c>
-      <c r="E336" s="9">
+      <c r="E336" s="7">
         <v>212.51668891855809</v>
       </c>
     </row>
@@ -6609,10 +6269,10 @@
       <c r="C337">
         <v>2012</v>
       </c>
-      <c r="D337" s="5">
+      <c r="D337" s="4">
         <v>958428</v>
       </c>
-      <c r="E337" s="9">
+      <c r="E337" s="7">
         <v>213.26835781041387</v>
       </c>
     </row>
@@ -6626,10 +6286,10 @@
       <c r="C338">
         <v>2011</v>
       </c>
-      <c r="D338" s="5">
+      <c r="D338" s="4">
         <v>963511</v>
       </c>
-      <c r="E338" s="9">
+      <c r="E338" s="7">
         <v>214.39942145082333</v>
       </c>
     </row>
@@ -6643,10 +6303,10 @@
       <c r="C339">
         <v>2010</v>
       </c>
-      <c r="D339" s="5">
+      <c r="D339" s="4">
         <v>962472</v>
       </c>
-      <c r="E339" s="9">
+      <c r="E339" s="7">
         <v>214.16822429906543</v>
       </c>
     </row>
@@ -6660,10 +6320,10 @@
       <c r="C340">
         <v>2022</v>
       </c>
-      <c r="D340" s="5">
+      <c r="D340" s="4">
         <v>325898</v>
       </c>
-      <c r="E340" s="9">
+      <c r="E340" s="7">
         <v>26.390638918131021</v>
       </c>
     </row>
@@ -6677,10 +6337,10 @@
       <c r="C341">
         <v>2021</v>
       </c>
-      <c r="D341" s="5">
+      <c r="D341" s="4">
         <v>327338</v>
       </c>
-      <c r="E341" s="9">
+      <c r="E341" s="7">
         <v>26.507247550408941</v>
       </c>
     </row>
@@ -6694,10 +6354,10 @@
       <c r="C342">
         <v>2020</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="4">
         <v>329245</v>
       </c>
-      <c r="E342" s="9">
+      <c r="E342" s="7">
         <v>26.661673009960321</v>
       </c>
     </row>
@@ -6711,10 +6371,10 @@
       <c r="C343">
         <v>2019</v>
       </c>
-      <c r="D343" s="5">
+      <c r="D343" s="4">
         <v>330119</v>
       </c>
-      <c r="E343" s="9">
+      <c r="E343" s="7">
         <v>26.732447971495667</v>
       </c>
     </row>
@@ -6728,10 +6388,10 @@
       <c r="C344">
         <v>2018</v>
       </c>
-      <c r="D344" s="5">
+      <c r="D344" s="4">
         <v>331473</v>
       </c>
-      <c r="E344" s="9">
+      <c r="E344" s="7">
         <v>26.842092477123654</v>
       </c>
     </row>
@@ -6745,10 +6405,10 @@
       <c r="C345">
         <v>2017</v>
       </c>
-      <c r="D345" s="5">
+      <c r="D345" s="4">
         <v>333603</v>
       </c>
-      <c r="E345" s="9">
+      <c r="E345" s="7">
         <v>27.01457607903474</v>
       </c>
     </row>
@@ -6762,10 +6422,10 @@
       <c r="C346">
         <v>2016</v>
       </c>
-      <c r="D346" s="5">
+      <c r="D346" s="4">
         <v>335985</v>
       </c>
-      <c r="E346" s="9">
+      <c r="E346" s="7">
         <v>27.20746619159446</v>
       </c>
     </row>
@@ -6779,10 +6439,10 @@
       <c r="C347">
         <v>2015</v>
       </c>
-      <c r="D347" s="5">
+      <c r="D347" s="4">
         <v>339395</v>
       </c>
-      <c r="E347" s="9">
+      <c r="E347" s="7">
         <v>27.483601911085916</v>
       </c>
     </row>
@@ -6796,10 +6456,10 @@
       <c r="C348">
         <v>2014</v>
       </c>
-      <c r="D348" s="5">
+      <c r="D348" s="4">
         <v>342459</v>
       </c>
-      <c r="E348" s="9">
+      <c r="E348" s="7">
         <v>27.731719167543929</v>
       </c>
     </row>
@@ -6813,10 +6473,10 @@
       <c r="C349">
         <v>2013</v>
       </c>
-      <c r="D349" s="5">
+      <c r="D349" s="4">
         <v>345548</v>
       </c>
-      <c r="E349" s="9">
+      <c r="E349" s="7">
         <v>27.981860879423436</v>
       </c>
     </row>
@@ -6830,10 +6490,10 @@
       <c r="C350">
         <v>2012</v>
       </c>
-      <c r="D350" s="5">
+      <c r="D350" s="4">
         <v>350564</v>
       </c>
-      <c r="E350" s="9">
+      <c r="E350" s="7">
         <v>28.388047615191514</v>
       </c>
     </row>
@@ -6847,10 +6507,10 @@
       <c r="C351">
         <v>2011</v>
       </c>
-      <c r="D351" s="5">
+      <c r="D351" s="4">
         <v>352986</v>
       </c>
-      <c r="E351" s="9">
+      <c r="E351" s="7">
         <v>28.584176856425621</v>
       </c>
     </row>
@@ -6864,10 +6524,10 @@
       <c r="C352">
         <v>2010</v>
       </c>
-      <c r="D352" s="5">
+      <c r="D352" s="4">
         <v>353619</v>
       </c>
-      <c r="E352" s="9">
+      <c r="E352" s="7">
         <v>28.635436067697789</v>
       </c>
     </row>
@@ -6881,10 +6541,10 @@
       <c r="C353">
         <v>2022</v>
       </c>
-      <c r="D353" s="5">
+      <c r="D353" s="4">
         <v>153803</v>
       </c>
-      <c r="E353" s="9">
+      <c r="E353" s="7">
         <v>22.225867052023123</v>
       </c>
     </row>
@@ -6898,10 +6558,10 @@
       <c r="C354">
         <v>2021</v>
       </c>
-      <c r="D354" s="5">
+      <c r="D354" s="4">
         <v>153663</v>
       </c>
-      <c r="E354" s="9">
+      <c r="E354" s="7">
         <v>22.20563583815029</v>
       </c>
     </row>
@@ -6915,10 +6575,10 @@
       <c r="C355">
         <v>2020</v>
       </c>
-      <c r="D355" s="5">
+      <c r="D355" s="4">
         <v>153478</v>
       </c>
-      <c r="E355" s="9">
+      <c r="E355" s="7">
         <v>22.178901734104045</v>
       </c>
     </row>
@@ -6932,10 +6592,10 @@
       <c r="C356">
         <v>2019</v>
       </c>
-      <c r="D356" s="5">
+      <c r="D356" s="4">
         <v>153129</v>
       </c>
-      <c r="E356" s="9">
+      <c r="E356" s="7">
         <v>22.128468208092485</v>
       </c>
     </row>
@@ -6949,10 +6609,10 @@
       <c r="C357">
         <v>2018</v>
       </c>
-      <c r="D357" s="5">
+      <c r="D357" s="4">
         <v>153342</v>
       </c>
-      <c r="E357" s="9">
+      <c r="E357" s="7">
         <v>22.159248554913294</v>
       </c>
     </row>
@@ -6966,10 +6626,10 @@
       <c r="C358">
         <v>2017</v>
       </c>
-      <c r="D358" s="5">
+      <c r="D358" s="4">
         <v>154184</v>
       </c>
-      <c r="E358" s="9">
+      <c r="E358" s="7">
         <v>22.280924855491328</v>
       </c>
     </row>
@@ -6983,10 +6643,10 @@
       <c r="C359">
         <v>2016</v>
       </c>
-      <c r="D359" s="5">
+      <c r="D359" s="4">
         <v>155652</v>
       </c>
-      <c r="E359" s="9">
+      <c r="E359" s="7">
         <v>22.493063583815029</v>
       </c>
     </row>
@@ -7000,10 +6660,10 @@
       <c r="C360">
         <v>2015</v>
       </c>
-      <c r="D360" s="5">
+      <c r="D360" s="4">
         <v>157570</v>
       </c>
-      <c r="E360" s="9">
+      <c r="E360" s="7">
         <v>22.770231213872833</v>
       </c>
     </row>
@@ -7017,10 +6677,10 @@
       <c r="C361">
         <v>2014</v>
       </c>
-      <c r="D361" s="5">
+      <c r="D361" s="4">
         <v>159303</v>
       </c>
-      <c r="E361" s="9">
+      <c r="E361" s="7">
         <v>23.020664739884392</v>
       </c>
     </row>
@@ -7034,10 +6694,10 @@
       <c r="C362">
         <v>2013</v>
       </c>
-      <c r="D362" s="5">
+      <c r="D362" s="4">
         <v>161702</v>
       </c>
-      <c r="E362" s="9">
+      <c r="E362" s="7">
         <v>23.367341040462428</v>
       </c>
     </row>
@@ -7051,10 +6711,10 @@
       <c r="C363">
         <v>2012</v>
       </c>
-      <c r="D363" s="5">
+      <c r="D363" s="4">
         <v>163701</v>
       </c>
-      <c r="E363" s="9">
+      <c r="E363" s="7">
         <v>23.656213872832371</v>
       </c>
     </row>
@@ -7068,10 +6728,10 @@
       <c r="C364">
         <v>2011</v>
       </c>
-      <c r="D364" s="5">
+      <c r="D364" s="4">
         <v>164169</v>
       </c>
-      <c r="E364" s="9">
+      <c r="E364" s="7">
         <v>23.723843930635837</v>
       </c>
     </row>
@@ -7085,10 +6745,10 @@
       <c r="C365">
         <v>2010</v>
       </c>
-      <c r="D365" s="5">
+      <c r="D365" s="4">
         <v>164268</v>
       </c>
-      <c r="E365" s="9">
+      <c r="E365" s="7">
         <v>23.738150289017341</v>
       </c>
     </row>
@@ -7102,10 +6762,10 @@
       <c r="C366">
         <v>2022</v>
       </c>
-      <c r="D366" s="5">
+      <c r="D366" s="4">
         <v>1948393</v>
       </c>
-      <c r="E366" s="9">
+      <c r="E366" s="7">
         <v>138.81397834140782</v>
       </c>
     </row>
@@ -7119,10 +6779,10 @@
       <c r="C367">
         <v>2021</v>
       </c>
-      <c r="D367" s="5">
+      <c r="D367" s="4">
         <v>1947852</v>
       </c>
-      <c r="E367" s="9">
+      <c r="E367" s="7">
         <v>138.77543459675121</v>
       </c>
     </row>
@@ -7136,10 +6796,10 @@
       <c r="C368">
         <v>2020</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D368" s="4">
         <v>1950219</v>
       </c>
-      <c r="E368" s="9">
+      <c r="E368" s="7">
         <v>138.94407238529496</v>
       </c>
     </row>
@@ -7153,10 +6813,10 @@
       <c r="C369">
         <v>2019</v>
       </c>
-      <c r="D369" s="5">
+      <c r="D369" s="4">
         <v>1942389</v>
       </c>
-      <c r="E369" s="9">
+      <c r="E369" s="7">
         <v>138.38622114562554</v>
       </c>
     </row>
@@ -7170,10 +6830,10 @@
       <c r="C370">
         <v>2018</v>
       </c>
-      <c r="D370" s="5">
+      <c r="D370" s="4">
         <v>1939887</v>
       </c>
-      <c r="E370" s="9">
+      <c r="E370" s="7">
         <v>138.20796523225991</v>
       </c>
     </row>
@@ -7187,10 +6847,10 @@
       <c r="C371">
         <v>2017</v>
       </c>
-      <c r="D371" s="5">
+      <c r="D371" s="4">
         <v>1939527</v>
       </c>
-      <c r="E371" s="9">
+      <c r="E371" s="7">
         <v>138.18231689940154</v>
       </c>
     </row>
@@ -7204,10 +6864,10 @@
       <c r="C372">
         <v>2016</v>
       </c>
-      <c r="D372" s="5">
+      <c r="D372" s="4">
         <v>1939775</v>
       </c>
-      <c r="E372" s="9">
+      <c r="E372" s="7">
         <v>138.1999857509262</v>
       </c>
     </row>
@@ -7221,10 +6881,10 @@
       <c r="C373">
         <v>2015</v>
       </c>
-      <c r="D373" s="5">
+      <c r="D373" s="4">
         <v>1941480</v>
       </c>
-      <c r="E373" s="9">
+      <c r="E373" s="7">
         <v>138.32145910515817</v>
       </c>
     </row>
@@ -7238,10 +6898,10 @@
       <c r="C374">
         <v>2014</v>
       </c>
-      <c r="D374" s="5">
+      <c r="D374" s="4">
         <v>1941355</v>
       </c>
-      <c r="E374" s="9">
+      <c r="E374" s="7">
         <v>138.3125534340268</v>
       </c>
     </row>
@@ -7255,10 +6915,10 @@
       <c r="C375">
         <v>2013</v>
       </c>
-      <c r="D375" s="5">
+      <c r="D375" s="4">
         <v>1942155</v>
       </c>
-      <c r="E375" s="9">
+      <c r="E375" s="7">
         <v>138.36954972926759</v>
       </c>
     </row>
@@ -7272,10 +6932,10 @@
       <c r="C376">
         <v>2012</v>
       </c>
-      <c r="D376" s="5">
+      <c r="D376" s="4">
         <v>1938974</v>
       </c>
-      <c r="E376" s="9">
+      <c r="E376" s="7">
         <v>138.14291821031634</v>
       </c>
     </row>
@@ -7289,10 +6949,10 @@
       <c r="C377">
         <v>2011</v>
       </c>
-      <c r="D377" s="5">
+      <c r="D377" s="4">
         <v>1928962</v>
       </c>
-      <c r="E377" s="9">
+      <c r="E377" s="7">
         <v>137.42960957537761</v>
       </c>
     </row>
@@ -7306,10 +6966,10 @@
       <c r="C378">
         <v>2010</v>
       </c>
-      <c r="D378" s="5">
+      <c r="D378" s="4">
         <v>1917097</v>
       </c>
-      <c r="E378" s="9">
+      <c r="E378" s="7">
         <v>136.58428327158734</v>
       </c>
     </row>
@@ -7323,10 +6983,10 @@
       <c r="C379">
         <v>2022</v>
       </c>
-      <c r="D379" s="5">
+      <c r="D379" s="4">
         <v>88377</v>
       </c>
-      <c r="E379" s="9">
+      <c r="E379" s="7">
         <v>8.575295944110227</v>
       </c>
     </row>
@@ -7340,10 +7000,10 @@
       <c r="C380">
         <v>2021</v>
       </c>
-      <c r="D380" s="5">
+      <c r="D380" s="4">
         <v>88747</v>
       </c>
-      <c r="E380" s="9">
+      <c r="E380" s="7">
         <v>8.6111973607607215</v>
       </c>
     </row>
@@ -7357,10 +7017,10 @@
       <c r="C381">
         <v>2020</v>
       </c>
-      <c r="D381" s="5">
+      <c r="D381" s="4">
         <v>88884</v>
       </c>
-      <c r="E381" s="9">
+      <c r="E381" s="7">
         <v>8.6244905880069869</v>
       </c>
     </row>
@@ -7374,10 +7034,10 @@
       <c r="C382">
         <v>2019</v>
       </c>
-      <c r="D382" s="5">
+      <c r="D382" s="4">
         <v>88636</v>
       </c>
-      <c r="E382" s="9">
+      <c r="E382" s="7">
         <v>8.600426935765574</v>
       </c>
     </row>
@@ -7391,10 +7051,10 @@
       <c r="C383">
         <v>2018</v>
       </c>
-      <c r="D383" s="5">
+      <c r="D383" s="4">
         <v>88600</v>
       </c>
-      <c r="E383" s="9">
+      <c r="E383" s="7">
         <v>8.5969338249563361</v>
       </c>
     </row>
@@ -7408,10 +7068,10 @@
       <c r="C384">
         <v>2017</v>
       </c>
-      <c r="D384" s="5">
+      <c r="D384" s="4">
         <v>88903</v>
       </c>
-      <c r="E384" s="9">
+      <c r="E384" s="7">
         <v>8.6263341742674164</v>
       </c>
     </row>
@@ -7425,10 +7085,10 @@
       <c r="C385">
         <v>2016</v>
       </c>
-      <c r="D385" s="5">
+      <c r="D385" s="4">
         <v>90040</v>
       </c>
-      <c r="E385" s="9">
+      <c r="E385" s="7">
         <v>8.7366582573258302</v>
       </c>
     </row>
@@ -7442,10 +7102,10 @@
       <c r="C386">
         <v>2015</v>
       </c>
-      <c r="D386" s="5">
+      <c r="D386" s="4">
         <v>91006</v>
       </c>
-      <c r="E386" s="9">
+      <c r="E386" s="7">
         <v>8.8303900640403654</v>
       </c>
     </row>
@@ -7459,10 +7119,10 @@
       <c r="C387">
         <v>2014</v>
       </c>
-      <c r="D387" s="5">
+      <c r="D387" s="4">
         <v>92221</v>
       </c>
-      <c r="E387" s="9">
+      <c r="E387" s="7">
         <v>8.9482825538521258</v>
       </c>
     </row>
@@ -7476,10 +7136,10 @@
       <c r="C388">
         <v>2013</v>
       </c>
-      <c r="D388" s="5">
+      <c r="D388" s="4">
         <v>93291</v>
       </c>
-      <c r="E388" s="9">
+      <c r="E388" s="7">
         <v>9.0521055695711237</v>
       </c>
     </row>
@@ -7493,10 +7153,10 @@
       <c r="C389">
         <v>2012</v>
       </c>
-      <c r="D389" s="5">
+      <c r="D389" s="4">
         <v>94522</v>
       </c>
-      <c r="E389" s="9">
+      <c r="E389" s="7">
         <v>9.1715505530758783</v>
       </c>
     </row>
@@ -7510,10 +7170,10 @@
       <c r="C390">
         <v>2011</v>
       </c>
-      <c r="D390" s="5">
+      <c r="D390" s="4">
         <v>95223</v>
       </c>
-      <c r="E390" s="9">
+      <c r="E390" s="7">
         <v>9.239569183000194</v>
       </c>
     </row>
@@ -7527,10 +7187,10 @@
       <c r="C391">
         <v>2010</v>
       </c>
-      <c r="D391" s="5">
+      <c r="D391" s="4">
         <v>95258</v>
       </c>
-      <c r="E391" s="9">
+      <c r="E391" s="7">
         <v>9.2429652629536196</v>
       </c>
     </row>
@@ -7544,10 +7204,10 @@
       <c r="C392">
         <v>2022</v>
       </c>
-      <c r="D392" s="5">
+      <c r="D392" s="4">
         <v>830075</v>
       </c>
-      <c r="E392" s="9">
+      <c r="E392" s="7">
         <v>131.71612186607427</v>
       </c>
     </row>
@@ -7561,10 +7221,10 @@
       <c r="C393">
         <v>2021</v>
       </c>
-      <c r="D393" s="5">
+      <c r="D393" s="4">
         <v>822309</v>
       </c>
-      <c r="E393" s="9">
+      <c r="E393" s="7">
         <v>130.48381466201207</v>
       </c>
     </row>
@@ -7578,10 +7238,10 @@
       <c r="C394">
         <v>2020</v>
       </c>
-      <c r="D394" s="5">
+      <c r="D394" s="4">
         <v>816772</v>
       </c>
-      <c r="E394" s="9">
+      <c r="E394" s="7">
         <v>129.60520469692162</v>
       </c>
     </row>
@@ -7595,10 +7255,10 @@
       <c r="C395">
         <v>2019</v>
       </c>
-      <c r="D395" s="5">
+      <c r="D395" s="4">
         <v>804664</v>
       </c>
-      <c r="E395" s="9">
+      <c r="E395" s="7">
         <v>127.68390986988258</v>
       </c>
     </row>
@@ -7612,10 +7272,10 @@
       <c r="C396">
         <v>2018</v>
       </c>
-      <c r="D396" s="5">
+      <c r="D396" s="4">
         <v>795902</v>
       </c>
-      <c r="E396" s="9">
+      <c r="E396" s="7">
         <v>126.29355760076166</v>
       </c>
     </row>
@@ -7629,10 +7289,10 @@
       <c r="C397">
         <v>2017</v>
       </c>
-      <c r="D397" s="5">
+      <c r="D397" s="4">
         <v>791693</v>
       </c>
-      <c r="E397" s="9">
+      <c r="E397" s="7">
         <v>125.62567438908283</v>
       </c>
     </row>
@@ -7646,10 +7306,10 @@
       <c r="C398">
         <v>2016</v>
       </c>
-      <c r="D398" s="5">
+      <c r="D398" s="4">
         <v>792299</v>
       </c>
-      <c r="E398" s="9">
+      <c r="E398" s="7">
         <v>125.7218343383053</v>
       </c>
     </row>
@@ -7663,10 +7323,10 @@
       <c r="C399">
         <v>2015</v>
       </c>
-      <c r="D399" s="5">
+      <c r="D399" s="4">
         <v>795101</v>
       </c>
-      <c r="E399" s="9">
+      <c r="E399" s="7">
         <v>126.16645509362107</v>
       </c>
     </row>
@@ -7680,10 +7340,10 @@
       <c r="C400">
         <v>2014</v>
       </c>
-      <c r="D400" s="5">
+      <c r="D400" s="4">
         <v>800962</v>
       </c>
-      <c r="E400" s="9">
+      <c r="E400" s="7">
         <v>127.09647730879087</v>
       </c>
     </row>
@@ -7697,10 +7357,10 @@
       <c r="C401">
         <v>2013</v>
       </c>
-      <c r="D401" s="5">
+      <c r="D401" s="4">
         <v>810178</v>
       </c>
-      <c r="E401" s="9">
+      <c r="E401" s="7">
         <v>128.55887019993654</v>
       </c>
     </row>
@@ -7714,10 +7374,10 @@
       <c r="C402">
         <v>2012</v>
       </c>
-      <c r="D402" s="5">
+      <c r="D402" s="4">
         <v>814199</v>
       </c>
-      <c r="E402" s="9">
+      <c r="E402" s="7">
         <v>129.1969216121866</v>
       </c>
     </row>
@@ -7731,10 +7391,10 @@
       <c r="C403">
         <v>2011</v>
       </c>
-      <c r="D403" s="5">
+      <c r="D403" s="4">
         <v>811401</v>
       </c>
-      <c r="E403" s="9">
+      <c r="E403" s="7">
         <v>128.75293557600762</v>
       </c>
     </row>
@@ -7748,10 +7408,10 @@
       <c r="C404">
         <v>2010</v>
       </c>
-      <c r="D404" s="5">
+      <c r="D404" s="4">
         <v>808420</v>
       </c>
-      <c r="E404" s="9">
+      <c r="E404" s="7">
         <v>128.27991113932086</v>
       </c>
     </row>
@@ -7765,10 +7425,10 @@
       <c r="C405">
         <v>2022</v>
       </c>
-      <c r="D405" s="5">
+      <c r="D405" s="4">
         <v>713453</v>
       </c>
-      <c r="E405" s="9">
+      <c r="E405" s="7">
         <v>46.421562886329625</v>
       </c>
     </row>
@@ -7782,10 +7442,10 @@
       <c r="C406">
         <v>2021</v>
       </c>
-      <c r="D406" s="5">
+      <c r="D406" s="4">
         <v>709403</v>
       </c>
-      <c r="E406" s="9">
+      <c r="E406" s="7">
         <v>46.158045416097337</v>
       </c>
     </row>
@@ -7799,10 +7459,10 @@
       <c r="C407">
         <v>2020</v>
       </c>
-      <c r="D407" s="5">
+      <c r="D407" s="4">
         <v>703772</v>
       </c>
-      <c r="E407" s="9">
+      <c r="E407" s="7">
         <v>45.791658533411415</v>
       </c>
     </row>
@@ -7816,10 +7476,10 @@
       <c r="C408">
         <v>2019</v>
       </c>
-      <c r="D408" s="5">
+      <c r="D408" s="4">
         <v>694844</v>
       </c>
-      <c r="E408" s="9">
+      <c r="E408" s="7">
         <v>45.210748910143799</v>
       </c>
     </row>
@@ -7833,10 +7493,10 @@
       <c r="C409">
         <v>2018</v>
       </c>
-      <c r="D409" s="5">
+      <c r="D409" s="4">
         <v>687391</v>
       </c>
-      <c r="E409" s="9">
+      <c r="E409" s="7">
         <v>44.725811698874359</v>
       </c>
     </row>
@@ -7850,10 +7510,10 @@
       <c r="C410">
         <v>2017</v>
       </c>
-      <c r="D410" s="5">
+      <c r="D410" s="4">
         <v>686841</v>
       </c>
-      <c r="E410" s="9">
+      <c r="E410" s="7">
         <v>44.690025375756392</v>
       </c>
     </row>
@@ -7867,10 +7527,10 @@
       <c r="C411">
         <v>2016</v>
       </c>
-      <c r="D411" s="5">
+      <c r="D411" s="4">
         <v>688672</v>
       </c>
-      <c r="E411" s="9">
+      <c r="E411" s="7">
         <v>44.809161298718202</v>
       </c>
     </row>
@@ -7884,10 +7544,10 @@
       <c r="C412">
         <v>2015</v>
       </c>
-      <c r="D412" s="5">
+      <c r="D412" s="4">
         <v>693371</v>
       </c>
-      <c r="E412" s="9">
+      <c r="E412" s="7">
         <v>45.114906630229683</v>
       </c>
     </row>
@@ -7901,10 +7561,10 @@
       <c r="C413">
         <v>2014</v>
       </c>
-      <c r="D413" s="5">
+      <c r="D413" s="4">
         <v>699136</v>
       </c>
-      <c r="E413" s="9">
+      <c r="E413" s="7">
         <v>45.490012362547986</v>
       </c>
     </row>
@@ -7918,10 +7578,10 @@
       <c r="C414">
         <v>2013</v>
       </c>
-      <c r="D414" s="5">
+      <c r="D414" s="4">
         <v>706407</v>
       </c>
-      <c r="E414" s="9">
+      <c r="E414" s="7">
         <v>45.963107554167479</v>
       </c>
     </row>
@@ -7935,10 +7595,10 @@
       <c r="C415">
         <v>2012</v>
       </c>
-      <c r="D415" s="5">
+      <c r="D415" s="4">
         <v>711228</v>
       </c>
-      <c r="E415" s="9">
+      <c r="E415" s="7">
         <v>46.276790942806947</v>
       </c>
     </row>
@@ -7952,10 +7612,10 @@
       <c r="C416">
         <v>2011</v>
       </c>
-      <c r="D416" s="5">
+      <c r="D416" s="4">
         <v>707242</v>
       </c>
-      <c r="E416" s="9">
+      <c r="E416" s="7">
         <v>46.017437699264754</v>
       </c>
     </row>
@@ -7969,10 +7629,10 @@
       <c r="C417">
         <v>2010</v>
       </c>
-      <c r="D417" s="5">
+      <c r="D417" s="4">
         <v>697959</v>
       </c>
-      <c r="E417" s="9">
+      <c r="E417" s="7">
         <v>45.413429631075545</v>
       </c>
     </row>
@@ -7986,10 +7646,10 @@
       <c r="C418">
         <v>2022</v>
       </c>
-      <c r="D418" s="5">
+      <c r="D418" s="4">
         <v>2605757</v>
       </c>
-      <c r="E418" s="9">
+      <c r="E418" s="7">
         <v>241.11751642453964</v>
       </c>
     </row>
@@ -8003,10 +7663,10 @@
       <c r="C419">
         <v>2021</v>
       </c>
-      <c r="D419" s="5">
+      <c r="D419" s="4">
         <v>2589312</v>
       </c>
-      <c r="E419" s="9">
+      <c r="E419" s="7">
         <v>239.5958175256778</v>
       </c>
     </row>
@@ -8020,10 +7680,10 @@
       <c r="C420">
         <v>2020</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="4">
         <v>2591875</v>
       </c>
-      <c r="E420" s="9">
+      <c r="E420" s="7">
         <v>239.83297862496531</v>
       </c>
     </row>
@@ -8037,10 +7697,10 @@
       <c r="C421">
         <v>2019</v>
       </c>
-      <c r="D421" s="5">
+      <c r="D421" s="4">
         <v>2565124</v>
       </c>
-      <c r="E421" s="9">
+      <c r="E421" s="7">
         <v>237.35763856759507</v>
       </c>
     </row>
@@ -8054,10 +7714,10 @@
       <c r="C422">
         <v>2018</v>
       </c>
-      <c r="D422" s="5">
+      <c r="D422" s="4">
         <v>2547986</v>
       </c>
-      <c r="E422" s="9">
+      <c r="E422" s="7">
         <v>235.77181456463404</v>
       </c>
     </row>
@@ -8071,10 +7731,10 @@
       <c r="C423">
         <v>2017</v>
       </c>
-      <c r="D423" s="5">
+      <c r="D423" s="4">
         <v>2540707</v>
       </c>
-      <c r="E423" s="9">
+      <c r="E423" s="7">
         <v>235.09826964004813</v>
       </c>
     </row>
@@ -8088,10 +7748,10 @@
       <c r="C424">
         <v>2016</v>
       </c>
-      <c r="D424" s="5">
+      <c r="D424" s="4">
         <v>2544264</v>
       </c>
-      <c r="E424" s="9">
+      <c r="E424" s="7">
         <v>235.42740816137689</v>
       </c>
     </row>
@@ -8105,10 +7765,10 @@
       <c r="C425">
         <v>2015</v>
       </c>
-      <c r="D425" s="5">
+      <c r="D425" s="4">
         <v>2543315</v>
       </c>
-      <c r="E425" s="9">
+      <c r="E425" s="7">
         <v>235.33959470713427</v>
       </c>
     </row>
@@ -8122,10 +7782,10 @@
       <c r="C426">
         <v>2014</v>
       </c>
-      <c r="D426" s="5">
+      <c r="D426" s="4">
         <v>2548898</v>
       </c>
-      <c r="E426" s="9">
+      <c r="E426" s="7">
         <v>235.85620431202</v>
       </c>
     </row>
@@ -8139,10 +7799,10 @@
       <c r="C427">
         <v>2013</v>
       </c>
-      <c r="D427" s="5">
+      <c r="D427" s="4">
         <v>2566474</v>
       </c>
-      <c r="E427" s="9">
+      <c r="E427" s="7">
         <v>237.48255760155456</v>
       </c>
     </row>
@@ -8156,10 +7816,10 @@
       <c r="C428">
         <v>2012</v>
       </c>
-      <c r="D428" s="5">
+      <c r="D428" s="4">
         <v>2580792</v>
       </c>
-      <c r="E428" s="9">
+      <c r="E428" s="7">
         <v>238.80743962246692</v>
       </c>
     </row>
@@ -8173,10 +7833,10 @@
       <c r="C429">
         <v>2011</v>
       </c>
-      <c r="D429" s="5">
+      <c r="D429" s="4">
         <v>2578719</v>
       </c>
-      <c r="E429" s="9">
+      <c r="E429" s="7">
         <v>238.61561950587583</v>
       </c>
     </row>
@@ -8190,10 +7850,10 @@
       <c r="C430">
         <v>2010</v>
       </c>
-      <c r="D430" s="5">
+      <c r="D430" s="4">
         <v>2581147</v>
       </c>
-      <c r="E430" s="9">
+      <c r="E430" s="7">
         <v>238.84028870176738</v>
       </c>
     </row>
@@ -8207,10 +7867,10 @@
       <c r="C431">
         <v>2022</v>
       </c>
-      <c r="D431" s="5">
+      <c r="D431" s="4">
         <v>517975</v>
       </c>
-      <c r="E431" s="9">
+      <c r="E431" s="7">
         <v>63.868680641183722</v>
       </c>
     </row>
@@ -8224,10 +7884,10 @@
       <c r="C432">
         <v>2021</v>
       </c>
-      <c r="D432" s="5">
+      <c r="D432" s="4">
         <v>519361</v>
       </c>
-      <c r="E432" s="9">
+      <c r="E432" s="7">
         <v>64.039580764488292</v>
       </c>
     </row>
@@ -8241,10 +7901,10 @@
       <c r="C433">
         <v>2020</v>
       </c>
-      <c r="D433" s="5">
+      <c r="D433" s="4">
         <v>520649</v>
       </c>
-      <c r="E433" s="9">
+      <c r="E433" s="7">
         <v>64.198397040690509</v>
       </c>
     </row>
@@ -8258,10 +7918,10 @@
       <c r="C434">
         <v>2019</v>
       </c>
-      <c r="D434" s="5">
+      <c r="D434" s="4">
         <v>519546</v>
       </c>
-      <c r="E434" s="9">
+      <c r="E434" s="7">
         <v>64.062392108508021</v>
       </c>
     </row>
@@ -8275,10 +7935,10 @@
       <c r="C435">
         <v>2018</v>
       </c>
-      <c r="D435" s="5">
+      <c r="D435" s="4">
         <v>519851</v>
       </c>
-      <c r="E435" s="9">
+      <c r="E435" s="7">
         <v>64.099999999999994</v>
       </c>
     </row>
@@ -8292,10 +7952,10 @@
       <c r="C436">
         <v>2017</v>
       </c>
-      <c r="D436" s="5">
+      <c r="D436" s="4">
         <v>521130</v>
       </c>
-      <c r="E436" s="9">
+      <c r="E436" s="7">
         <v>64.257706535141807</v>
       </c>
     </row>
@@ -8309,10 +7969,10 @@
       <c r="C437">
         <v>2016</v>
       </c>
-      <c r="D437" s="5">
+      <c r="D437" s="4">
         <v>523679</v>
       </c>
-      <c r="E437" s="9">
+      <c r="E437" s="7">
         <v>64.572009864364986</v>
       </c>
     </row>
@@ -8326,10 +7986,10 @@
       <c r="C438">
         <v>2015</v>
       </c>
-      <c r="D438" s="5">
+      <c r="D438" s="4">
         <v>526288</v>
       </c>
-      <c r="E438" s="9">
+      <c r="E438" s="7">
         <v>64.893711467324295</v>
       </c>
     </row>
@@ -8343,10 +8003,10 @@
       <c r="C439">
         <v>2014</v>
       </c>
-      <c r="D439" s="5">
+      <c r="D439" s="4">
         <v>529157</v>
       </c>
-      <c r="E439" s="9">
+      <c r="E439" s="7">
         <v>65.247472256473486</v>
       </c>
     </row>
@@ -8360,10 +8020,10 @@
       <c r="C440">
         <v>2013</v>
       </c>
-      <c r="D440" s="5">
+      <c r="D440" s="4">
         <v>532284</v>
       </c>
-      <c r="E440" s="9">
+      <c r="E440" s="7">
         <v>65.633045622688044</v>
       </c>
     </row>
@@ -8377,10 +8037,10 @@
       <c r="C441">
         <v>2012</v>
       </c>
-      <c r="D441" s="5">
+      <c r="D441" s="4">
         <v>534280</v>
       </c>
-      <c r="E441" s="9">
+      <c r="E441" s="7">
         <v>65.879161528976567</v>
       </c>
     </row>
@@ -8394,10 +8054,10 @@
       <c r="C442">
         <v>2011</v>
       </c>
-      <c r="D442" s="5">
+      <c r="D442" s="4">
         <v>534874</v>
       </c>
-      <c r="E442" s="9">
+      <c r="E442" s="7">
         <v>65.952404438964237</v>
       </c>
     </row>
@@ -8411,10 +8071,10 @@
       <c r="C443">
         <v>2010</v>
       </c>
-      <c r="D443" s="5">
+      <c r="D443" s="4">
         <v>533640</v>
       </c>
-      <c r="E443" s="9">
+      <c r="E443" s="7">
         <v>65.800246609124542</v>
       </c>
     </row>
@@ -8428,10 +8088,10 @@
       <c r="C444">
         <v>2022</v>
       </c>
-      <c r="D444" s="5">
+      <c r="D444" s="4">
         <v>167215</v>
       </c>
-      <c r="E444" s="9">
+      <c r="E444" s="7">
         <v>15.833254426664142</v>
       </c>
     </row>
@@ -8445,10 +8105,10 @@
       <c r="C445">
         <v>2021</v>
       </c>
-      <c r="D445" s="5">
+      <c r="D445" s="4">
         <v>168725</v>
       </c>
-      <c r="E445" s="9">
+      <c r="E445" s="7">
         <v>15.976233311239467</v>
       </c>
     </row>
@@ -8462,10 +8122,10 @@
       <c r="C446">
         <v>2020</v>
       </c>
-      <c r="D446" s="5">
+      <c r="D446" s="4">
         <v>170588</v>
       </c>
-      <c r="E446" s="9">
+      <c r="E446" s="7">
         <v>16.152637060884388</v>
       </c>
     </row>
@@ -8479,10 +8139,10 @@
       <c r="C447">
         <v>2019</v>
       </c>
-      <c r="D447" s="5">
+      <c r="D447" s="4">
         <v>172539</v>
       </c>
-      <c r="E447" s="9">
+      <c r="E447" s="7">
         <v>16.337373354795947</v>
       </c>
     </row>
@@ -8496,10 +8156,10 @@
       <c r="C448">
         <v>2018</v>
       </c>
-      <c r="D448" s="5">
+      <c r="D448" s="4">
         <v>174549</v>
       </c>
-      <c r="E448" s="9">
+      <c r="E448" s="7">
         <v>16.527696240886279</v>
       </c>
     </row>
@@ -8513,10 +8173,10 @@
       <c r="C449">
         <v>2017</v>
       </c>
-      <c r="D449" s="5">
+      <c r="D449" s="4">
         <v>177404</v>
       </c>
-      <c r="E449" s="9">
+      <c r="E449" s="7">
         <v>16.798030489536977</v>
       </c>
     </row>
@@ -8530,10 +8190,10 @@
       <c r="C450">
         <v>2016</v>
       </c>
-      <c r="D450" s="5">
+      <c r="D450" s="4">
         <v>180406</v>
       </c>
-      <c r="E450" s="9">
+      <c r="E450" s="7">
         <v>17.082283874633085</v>
       </c>
     </row>
@@ -8547,10 +8207,10 @@
       <c r="C451">
         <v>2015</v>
       </c>
-      <c r="D451" s="5">
+      <c r="D451" s="4">
         <v>183436</v>
       </c>
-      <c r="E451" s="9">
+      <c r="E451" s="7">
         <v>17.369188523814032</v>
       </c>
     </row>
@@ -8564,10 +8224,10 @@
       <c r="C452">
         <v>2014</v>
       </c>
-      <c r="D452" s="5">
+      <c r="D452" s="4">
         <v>185432</v>
       </c>
-      <c r="E452" s="9">
+      <c r="E452" s="7">
         <v>17.558185777861944</v>
       </c>
     </row>
@@ -8581,10 +8241,10 @@
       <c r="C453">
         <v>2013</v>
       </c>
-      <c r="D453" s="5">
+      <c r="D453" s="4">
         <v>188270</v>
       </c>
-      <c r="E453" s="9">
+      <c r="E453" s="7">
         <v>17.826910330461132</v>
       </c>
     </row>
@@ -8598,10 +8258,10 @@
       <c r="C454">
         <v>2012</v>
       </c>
-      <c r="D454" s="5">
+      <c r="D454" s="4">
         <v>191612</v>
       </c>
-      <c r="E454" s="9">
+      <c r="E454" s="7">
         <v>18.143357636587446</v>
       </c>
     </row>
@@ -8615,10 +8275,10 @@
       <c r="C455">
         <v>2011</v>
       </c>
-      <c r="D455" s="5">
+      <c r="D455" s="4">
         <v>193383</v>
       </c>
-      <c r="E455" s="9">
+      <c r="E455" s="7">
         <v>18.311050089953604</v>
       </c>
     </row>
@@ -8632,16 +8292,16 @@
       <c r="C456">
         <v>2010</v>
       </c>
-      <c r="D456" s="5">
+      <c r="D456" s="4">
         <v>194214</v>
       </c>
-      <c r="E456" s="9">
+      <c r="E456" s="7">
         <v>18.389735820471547</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B457">
         <v>8050</v>
@@ -8649,16 +8309,16 @@
       <c r="C457">
         <v>2022</v>
       </c>
-      <c r="D457" s="5">
+      <c r="D457" s="4">
         <v>158140</v>
       </c>
-      <c r="E457" s="9">
+      <c r="E457" s="7">
         <v>19.644720496894411</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B458">
         <v>8050</v>
@@ -8666,16 +8326,16 @@
       <c r="C458">
         <v>2021</v>
       </c>
-      <c r="D458" s="5">
+      <c r="D458" s="4">
         <v>158421</v>
       </c>
-      <c r="E458" s="9">
+      <c r="E458" s="7">
         <v>19.679627329192545</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B459">
         <v>8050</v>
@@ -8683,16 +8343,16 @@
       <c r="C459">
         <v>2020</v>
       </c>
-      <c r="D459" s="5">
+      <c r="D459" s="4">
         <v>157664</v>
       </c>
-      <c r="E459" s="9">
+      <c r="E459" s="7">
         <v>19.585590062111802</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B460">
         <v>8050</v>
@@ -8700,16 +8360,16 @@
       <c r="C460">
         <v>2019</v>
       </c>
-      <c r="D460" s="5">
+      <c r="D460" s="4">
         <v>157640</v>
       </c>
-      <c r="E460" s="9">
+      <c r="E460" s="7">
         <v>19.582608695652173</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B461">
         <v>8050</v>
@@ -8717,16 +8377,16 @@
       <c r="C461">
         <v>2018</v>
       </c>
-      <c r="D461" s="5">
+      <c r="D461" s="4">
         <v>158498</v>
       </c>
-      <c r="E461" s="9">
+      <c r="E461" s="7">
         <v>19.68919254658385</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B462">
         <v>8050</v>
@@ -8734,16 +8394,16 @@
       <c r="C462">
         <v>2017</v>
       </c>
-      <c r="D462" s="5">
+      <c r="D462" s="4">
         <v>160700</v>
       </c>
-      <c r="E462" s="9">
+      <c r="E462" s="7">
         <v>19.962732919254659</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B463">
         <v>8050</v>
@@ -8751,16 +8411,16 @@
       <c r="C463">
         <v>2016</v>
       </c>
-      <c r="D463" s="5">
+      <c r="D463" s="4">
         <v>162514</v>
       </c>
-      <c r="E463" s="9">
+      <c r="E463" s="7">
         <v>20.18807453416149</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B464">
         <v>8050</v>
@@ -8768,16 +8428,16 @@
       <c r="C464">
         <v>2015</v>
       </c>
-      <c r="D464" s="5">
+      <c r="D464" s="4">
         <v>164925</v>
       </c>
-      <c r="E464" s="9">
+      <c r="E464" s="7">
         <v>20.487577639751553</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B465">
         <v>8050</v>
@@ -8785,16 +8445,16 @@
       <c r="C465">
         <v>2014</v>
       </c>
-      <c r="D465" s="5">
+      <c r="D465" s="4">
         <v>167015</v>
       </c>
-      <c r="E465" s="9">
+      <c r="E465" s="7">
         <v>20.7472049689441</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B466">
         <v>8050</v>
@@ -8802,16 +8462,16 @@
       <c r="C466">
         <v>2013</v>
       </c>
-      <c r="D466" s="5">
+      <c r="D466" s="4">
         <v>168825</v>
       </c>
-      <c r="E466" s="9">
+      <c r="E466" s="7">
         <v>20.972049689440993</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B467">
         <v>8050</v>
@@ -8819,16 +8479,16 @@
       <c r="C467">
         <v>2012</v>
       </c>
-      <c r="D467" s="5">
+      <c r="D467" s="4">
         <v>171265</v>
       </c>
-      <c r="E467" s="9">
+      <c r="E467" s="7">
         <v>21.275155279503107</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B468">
         <v>8050</v>
@@ -8836,16 +8496,16 @@
       <c r="C468">
         <v>2011</v>
       </c>
-      <c r="D468" s="5">
+      <c r="D468" s="4">
         <v>172704</v>
       </c>
-      <c r="E468" s="9">
+      <c r="E468" s="7">
         <v>21.453913043478259</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B469">
         <v>8050</v>
@@ -8853,16 +8513,16 @@
       <c r="C469">
         <v>2010</v>
       </c>
-      <c r="D469" s="5">
+      <c r="D469" s="4">
         <v>171896</v>
       </c>
-      <c r="E469" s="9">
+      <c r="E469" s="7">
         <v>21.353540372670807</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B470">
         <v>17274</v>
@@ -8870,16 +8530,16 @@
       <c r="C470">
         <v>2022</v>
       </c>
-      <c r="D470" s="5">
+      <c r="D470" s="4">
         <v>966438</v>
       </c>
-      <c r="E470" s="9">
+      <c r="E470" s="7">
         <v>55.947551233067038</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B471">
         <v>17274</v>
@@ -8887,16 +8547,16 @@
       <c r="C471">
         <v>2021</v>
       </c>
-      <c r="D471" s="5">
+      <c r="D471" s="4">
         <v>967452</v>
       </c>
-      <c r="E471" s="9">
+      <c r="E471" s="7">
         <v>56.006252170892672</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B472">
         <v>17274</v>
@@ -8904,16 +8564,16 @@
       <c r="C472">
         <v>2020</v>
       </c>
-      <c r="D472" s="5">
+      <c r="D472" s="4">
         <v>972528</v>
       </c>
-      <c r="E472" s="9">
+      <c r="E472" s="7">
         <v>56.30010420284821</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B473">
         <v>17274</v>
@@ -8921,16 +8581,16 @@
       <c r="C473">
         <v>2019</v>
       </c>
-      <c r="D473" s="5">
+      <c r="D473" s="4">
         <v>964693</v>
       </c>
-      <c r="E473" s="9">
+      <c r="E473" s="7">
         <v>55.846532360773416</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B474">
         <v>17274</v>
@@ -8938,16 +8598,16 @@
       <c r="C474">
         <v>2018</v>
       </c>
-      <c r="D474" s="5">
+      <c r="D474" s="4">
         <v>954811</v>
       </c>
-      <c r="E474" s="9">
+      <c r="E474" s="7">
         <v>55.274458724094011</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B475">
         <v>17274</v>
@@ -8955,16 +8615,16 @@
       <c r="C475">
         <v>2017</v>
       </c>
-      <c r="D475" s="5">
+      <c r="D475" s="4">
         <v>953486</v>
       </c>
-      <c r="E475" s="9">
+      <c r="E475" s="7">
         <v>55.197753849716335</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B476">
         <v>17274</v>
@@ -8972,16 +8632,16 @@
       <c r="C476">
         <v>2016</v>
       </c>
-      <c r="D476" s="5">
+      <c r="D476" s="4">
         <v>950507</v>
       </c>
-      <c r="E476" s="9">
+      <c r="E476" s="7">
         <v>55.025298135926825</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B477">
         <v>17274</v>
@@ -8989,16 +8649,16 @@
       <c r="C477">
         <v>2015</v>
       </c>
-      <c r="D477" s="5">
+      <c r="D477" s="4">
         <v>956006</v>
       </c>
-      <c r="E477" s="9">
+      <c r="E477" s="7">
         <v>55.343637837211993</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B478">
         <v>17274</v>
@@ -9006,16 +8666,16 @@
       <c r="C478">
         <v>2014</v>
       </c>
-      <c r="D478" s="5">
+      <c r="D478" s="4">
         <v>960111</v>
       </c>
-      <c r="E478" s="9">
+      <c r="E478" s="7">
         <v>55.581278221604727</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B479">
         <v>17274</v>
@@ -9023,16 +8683,16 @@
       <c r="C479">
         <v>2013</v>
       </c>
-      <c r="D479" s="5">
+      <c r="D479" s="4">
         <v>978638</v>
       </c>
-      <c r="E479" s="9">
+      <c r="E479" s="7">
         <v>56.653814982053952</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B480">
         <v>17274</v>
@@ -9040,16 +8700,16 @@
       <c r="C480">
         <v>2012</v>
       </c>
-      <c r="D480" s="5">
+      <c r="D480" s="4">
         <v>978130</v>
       </c>
-      <c r="E480" s="9">
+      <c r="E480" s="7">
         <v>56.624406622669909</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B481">
         <v>17274</v>
@@ -9057,16 +8717,16 @@
       <c r="C481">
         <v>2011</v>
       </c>
-      <c r="D481" s="5">
+      <c r="D481" s="4">
         <v>973325</v>
       </c>
-      <c r="E481" s="9">
+      <c r="E481" s="7">
         <v>56.346242908417274</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B482">
         <v>17274</v>
@@ -9074,16 +8734,16 @@
       <c r="C482">
         <v>2010</v>
       </c>
-      <c r="D482" s="5">
+      <c r="D482" s="4">
         <v>973252</v>
       </c>
-      <c r="E482" s="9">
+      <c r="E482" s="7">
         <v>56.342016904017598</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B483">
         <v>14809</v>
@@ -9091,16 +8751,16 @@
       <c r="C483">
         <v>2022</v>
       </c>
-      <c r="D483" s="5">
+      <c r="D483" s="4">
         <v>134421</v>
       </c>
-      <c r="E483" s="9">
+      <c r="E483" s="7">
         <v>9.0769802147342826</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B484">
         <v>14809</v>
@@ -9108,16 +8768,16 @@
       <c r="C484">
         <v>2021</v>
       </c>
-      <c r="D484" s="5">
+      <c r="D484" s="4">
         <v>134545</v>
       </c>
-      <c r="E484" s="9">
+      <c r="E484" s="7">
         <v>9.0853535012492408</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B485">
         <v>14809</v>
@@ -9125,16 +8785,16 @@
       <c r="C485">
         <v>2020</v>
       </c>
-      <c r="D485" s="5">
+      <c r="D485" s="4">
         <v>134176</v>
       </c>
-      <c r="E485" s="9">
+      <c r="E485" s="7">
         <v>9.0604362212168272</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B486">
         <v>14809</v>
@@ -9142,16 +8802,16 @@
       <c r="C486">
         <v>2019</v>
       </c>
-      <c r="D486" s="5">
+      <c r="D486" s="4">
         <v>134137</v>
       </c>
-      <c r="E486" s="9">
+      <c r="E486" s="7">
         <v>9.0578026875548652</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B487">
         <v>14809</v>
@@ -9159,16 +8819,16 @@
       <c r="C487">
         <v>2018</v>
       </c>
-      <c r="D487" s="5">
+      <c r="D487" s="4">
         <v>134572</v>
       </c>
-      <c r="E487" s="9">
+      <c r="E487" s="7">
         <v>9.087176716861368</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B488">
         <v>14809</v>
@@ -9176,16 +8836,16 @@
       <c r="C488">
         <v>2017</v>
       </c>
-      <c r="D488" s="5">
+      <c r="D488" s="4">
         <v>135562</v>
       </c>
-      <c r="E488" s="9">
+      <c r="E488" s="7">
         <v>9.1540279559727189</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B489">
         <v>14809</v>
@@ -9193,16 +8853,16 @@
       <c r="C489">
         <v>2016</v>
       </c>
-      <c r="D489" s="5">
+      <c r="D489" s="4">
         <v>136977</v>
       </c>
-      <c r="E489" s="9">
+      <c r="E489" s="7">
         <v>9.249577959349045</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B490">
         <v>14809</v>
@@ -9210,16 +8870,16 @@
       <c r="C490">
         <v>2015</v>
       </c>
-      <c r="D490" s="5">
+      <c r="D490" s="4">
         <v>138932</v>
       </c>
-      <c r="E490" s="9">
+      <c r="E490" s="7">
         <v>9.3815922749679252</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B491">
         <v>14809</v>
@@ -9227,16 +8887,16 @@
       <c r="C491">
         <v>2014</v>
       </c>
-      <c r="D491" s="5">
+      <c r="D491" s="4">
         <v>140365</v>
       </c>
-      <c r="E491" s="9">
+      <c r="E491" s="7">
         <v>9.4783577554190028</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B492">
         <v>14809</v>
@@ -9244,16 +8904,16 @@
       <c r="C492">
         <v>2013</v>
       </c>
-      <c r="D492" s="5">
+      <c r="D492" s="4">
         <v>142183</v>
       </c>
-      <c r="E492" s="9">
+      <c r="E492" s="7">
         <v>9.6011209399689381</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B493">
         <v>14809</v>
@@ -9261,16 +8921,16 @@
       <c r="C493">
         <v>2012</v>
       </c>
-      <c r="D493" s="5">
+      <c r="D493" s="4">
         <v>143728</v>
       </c>
-      <c r="E493" s="9">
+      <c r="E493" s="7">
         <v>9.7054493888851372</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B494">
         <v>14809</v>
@@ -9278,16 +8938,16 @@
       <c r="C494">
         <v>2011</v>
       </c>
-      <c r="D494" s="5">
+      <c r="D494" s="4">
         <v>144607</v>
       </c>
-      <c r="E494" s="9">
+      <c r="E494" s="7">
         <v>9.7648051860355185</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B495">
         <v>14809</v>
@@ -9295,10 +8955,10 @@
       <c r="C495">
         <v>2010</v>
       </c>
-      <c r="D495" s="5">
+      <c r="D495" s="4">
         <v>145277</v>
       </c>
-      <c r="E495" s="9">
+      <c r="E495" s="7">
         <v>9.8100479438179491</v>
       </c>
     </row>
